--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shesh\Desktop\sheshank_doc\ML\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA1F470-8A18-4374-973B-C7EA0B49460E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9F2AFA-94A0-4510-85FA-E74C16C60461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D7F2B556-C617-4DDF-8866-32B87C862FE3}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1189">
   <si>
     <t>Topic</t>
   </si>
@@ -17367,6 +17367,87 @@
       <t xml:space="preserve">
 The model's performance may suffer when features are not normalized, especially in algorithms that are sensitive to feature scales, such as k-nearest neighbors (KNN) or support vector machines (SVM).</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>when do we use normalization?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Normalization of data is a type of Feature scaling and is only required when the data distribution is unknown or the data doesn't have Gaussian Distribution. This type of scaling technique is used when the data has a diversified scope and the algorithms on which the data are being trained do not make presumptions about the data distribution such as Artificial Neural Network.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When To Standardize Data?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Standardized data is usually preferred when the data is being used for multivariate analysis i.e. when we want all the variables of comparable units. It is usually applied when the data has a bell curve i.e. it has a Gaussian distribution. No this isn't always true but is considered more effective when applied to Gaussian distribution. This technique comes in handy when the data has varying ratios and the algorithms used, make assumptions about the data distribution like Logistic Regression, Linear Discriminant Analysis, etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Algorithms that need Feature scaling?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+even distance-based algorithms also need data to be scaled because behind the scenes they are using the distance between the datapoints
+to determine their similarity.
+example: linear regression, logistic regression,SVM,k-means clustering
+which algorithms don't need feature scaling?
+Algorithms that do not require normalization/scaling are the ones that rely on rules. 
+They would not be affected by any monotonic transformations of the variables. 
+Examples of algorithms in this category are all the tree-based algorithms — CART, Random Forests, Gradient Boosted Decision Trees. 
+These algorithms utilize rules (series of inequalities) and do not require normalization.</t>
+    </r>
+  </si>
+  <si>
+    <t>Feature scaling types</t>
   </si>
 </sst>
 </file>
@@ -22426,8 +22507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F9766C-5467-4C6A-856C-E91C39450D47}">
   <dimension ref="A1:D129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22732,22 +22813,22 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>29</v>
+        <v>1187</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>7</v>
+        <v>1188</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>31</v>
+        <v>1186</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shesh\Desktop\sheshank_doc\ML\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9F2AFA-94A0-4510-85FA-E74C16C60461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E712798-3E3A-4E2A-B6E7-4E86A64050E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D7F2B556-C617-4DDF-8866-32B87C862FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="3" activeTab="6" xr2:uid="{D7F2B556-C617-4DDF-8866-32B87C862FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,8 @@
     <sheet name="Naive Bayes" sheetId="8" r:id="rId16"/>
     <sheet name="Decision Tree" sheetId="9" r:id="rId17"/>
     <sheet name="Random Forest" sheetId="10" r:id="rId18"/>
-    <sheet name="XG BOOST" sheetId="13" r:id="rId19"/>
-    <sheet name="GRADIENT BOOSTING" sheetId="14" r:id="rId20"/>
+    <sheet name="GRADIENT BOOSTING" sheetId="14" r:id="rId19"/>
+    <sheet name="XG BOOST" sheetId="13" r:id="rId20"/>
     <sheet name="ADA BOOST" sheetId="15" r:id="rId21"/>
     <sheet name="CAT BOOST" sheetId="16" r:id="rId22"/>
     <sheet name="LGB" sheetId="17" r:id="rId23"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1189">
   <si>
     <t>Topic</t>
   </si>
@@ -241,12 +241,6 @@
 7) Unit Vector Scaler</t>
   </si>
   <si>
-    <t>Skewness and Kurtosis</t>
-  </si>
-  <si>
-    <t>variance,standard deviation</t>
-  </si>
-  <si>
     <t>Types of data</t>
   </si>
   <si>
@@ -270,23 +264,11 @@
     <t>Data sources</t>
   </si>
   <si>
-    <t>Standard deviation topic</t>
-  </si>
-  <si>
     <t>range</t>
-  </si>
-  <si>
-    <t>when to use variance</t>
-  </si>
-  <si>
-    <t>when to use standard deviation</t>
   </si>
   <si>
     <t>Metrics to use in classification?
 When to use which metrics and why?</t>
-  </si>
-  <si>
-    <t>Measures of dispersion</t>
   </si>
   <si>
     <t>There are two types of data:
@@ -327,9 +309,6 @@
 Binary: represent data with a yes/no or 1/0 outcome (e.g. win or lose).</t>
   </si>
   <si>
-    <t>why n-1 in denominator of sample variance</t>
-  </si>
-  <si>
     <t>Central Tendency(mean,median,mode)</t>
   </si>
   <si>
@@ -349,16 +328,6 @@
   </si>
   <si>
     <t>which central tendency measure is greater at different skewness?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-what do you understand by 1st 2nd 3rd standard deviation?
-first we will calculate the standard deviation and the mean of the data.
-next for calculating the 1st std what we do is we add mean+std,for calculating the 2nd std will be calculated by adding mean+2*std.
-calculating the 3rd std will be calculated by adding mean+3*std to the right.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1st 2nd 3rd standard deviation</t>
   </si>
   <si>
     <t>central tendency measures</t>
@@ -1739,9 +1708,6 @@
 If our prediction returned a value of 0.2 then we would classify the observation as Class 2(CAT).</t>
   </si>
   <si>
-    <t>heterocedasity</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -2224,45 +2190,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">What is KNN Classifier ?
-KNN means K-Nearest Neighbour Algorithm. It can be used for both classification and regression.
-Also known as lazy learning. The KNN algorithm assumes that similar things exist in close proximity. In other words, similar things are near to each other.
-K-NN is a non-parametric algorithm, which means it does not make any assumption on underlying data.
-It is also called a lazy learner algorithm because it does not learn from the training set immediately instead it stores the dataset and at the time of classification, it performs an action on the dataset.
-KNN doesn't learn anything from the data it only keeps the training data as a reference in order to predict the values at testing time.
-During the testing phase it tries to find the distance between each training datapoint with the giving testing data point.
-we need to mention the no of neighbors it should take into account.
-after calculating the distance between each training datapoint w.r.to testing point it will sort all the values.
-suppose lets say k=5
-then it will consider the top  5 sorted values and looks at each class of training datapoint.
-the majority class will be taken as the class of test data point
-There are many distance measures to choose from to match the structure of your input data.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Suppose, we have an image of a creature that looks similar to cat and dog, but we want to know either it is a cat or dog. So for this identification, we can use the KNN algorithm, as it works on a similarity measure. Our KNN model will find the similar features of the new data set to the cats and dogs images and based on the most similar features it will put it in either cat or dog category.</t>
-    </r>
-  </si>
-  <si>
     <t>Steps in KNN</t>
   </si>
   <si>
@@ -2321,36 +2248,6 @@
     <t>Manhattan Distance</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Manhattan Distance:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Manhattan Distance is the sum of absolute differences between points across all the dimensions.
-to calculate Manhattan Distance, we will take the sum of absolute distances in both the x and y directions. 
-if we need to calculate the distance between two data points in a grid-like path use manhattan.
-The Manhattan distance is also known as Manhattan length. In other words, it is the distance between two points measured along axes at right angles.
-So, the Manhattan distance in a 2-dimensional space is given as:
-manhattan distance=|y2-y1| +|x2-x1|
-manhattan distance is also known as l1 norm</t>
-    </r>
-  </si>
-  <si>
     <t>difference between euclidean and manhattan distance?
 Euclidean distance is the shortest path between source and destination which is a straight line 
 but Manhattan distance is sum of all the real distances between source(s) and destination(d) and each distance are always the straight lines.</t>
@@ -2420,21 +2317,6 @@
     <t>cosine similarity</t>
   </si>
   <si>
-    <t>what is cosine similarity?
-Cosine Similarity measures the cosine of the angle between two non-zero vectors of an inner product space. 
-This similarity measurement is particularly concerned with orientation, rather than magnitude. 
-As the cosine distance between the data points increases, the cosine similarity, or the amount of similarity decreases, and vice versa. Thus, Points closer to each other are more similar than points that are far away from each other. Cosine similarity is given by Cos θ, and cosine distance is 1- Cos θ. 
-In short, two cosine vectors that are aligned in the same orientation will have a similarity measurement of 1, 
-whereas two vectors aligned perpendicularly will have a similarity of 0. If two vectors are diametrically opposed, 
-meaning they are oriented in exactly opposite directions (i.e. back-to-back), 
-then the similarity measurement is -1
-The output will produce a value ranging from -1 to 1, indicating similarity where -1 is non-similar,
- 0 is orthogonal (perpendicular), and 1 represents total similarity.
- Cosine Similarity measurement to distinguish and compare documents to each other based upon their similarities and overlap of subject matter.
-Where is it used?
-Cosine metric is mainly used in Collaborative Filtering based recommendation systems to offer future recommendations to users.</t>
-  </si>
-  <si>
     <t>Forward selection</t>
   </si>
   <si>
@@ -2929,31 +2811,6 @@
     <t>steps in decision tree classifier:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">steps in decision tree regressor: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-same as above but the impurity factor used is standard deviation reduction
-lower is the standard deviation value higher is the probability of getting selected as the root node.</t>
-    </r>
-  </si>
-  <si>
     <t>steps in decision tree regressor</t>
   </si>
   <si>
@@ -3519,17 +3376,6 @@
     <t>https://www.section.io/engineering-education/entropy-information-gain-machine-learning/</t>
   </si>
   <si>
-    <t>entropy only gives the impurity of a certain feature. But we need to find which feature can be used as root node and for that which feature could be child node. We need to find those kind of combinations for that we use Information gain.
-with the help of information gain we will be able to know which feature is good at each node given a root node.
-Definition: Information gain (IG) measures how much “information” a feature gives us about the class.
-The main node is referred to as the parent node, whereas sub-nodes are known as child nodes. We can use information gain to determine how good the splitting of nodes in a decision tree.
-IG(Y,X)=E(Y)-summation of E(Y,X)
-what does the above formula mean is E(Y) is the entropy of the feature in the root node.
-summation of E(Y,X) summation of all the entropy of the sub splits after the root node.
-feature with higher IG is optimal split.
-which means that if i chose x as a root node what could be the ideal splits in child nodes and whether the entropy is decreasing or not.</t>
-  </si>
-  <si>
     <t>steps</t>
   </si>
   <si>
@@ -3537,33 +3383,6 @@
 1. calculate the entropy of the target.
 2. calculate the entropy of each  target given feature
 3. calculate the information gain of target given a feature=entropy of target- entropy of target given feature.</t>
-  </si>
-  <si>
-    <t>Gini Impurity:
-Gini Impurity tells us what is the probability of misclassifying an observation. 
-It is calculated by subtracting the sum of squared probabilities of each class from one. 
-It favors larger partitions and easy to implement whereas information gain favors smaller partitions with distinct values.
-The Gini impurity measure is one of the methods used in decision tree algorithms to decide the optimal split from a root node, and subsequent splits.
-Def: Gini Impurity tells us what is the probability of misclassifying an observation.
-For calculating the Gini impurity of a continous feature we take a threshold value to split the data.
-Note that the lower the Gini the better the split. In other words the lower the likelihood of misclassification.
-lesser the value of Gini Impurity, more is the probability of using the feature as the root node or internal node.
-formula
-Suppose we have a list of observations, that indicates if a person decided to stay home from work. 
-We also have two features, namely if they are sick and their temperature.
-We need to choose which feature, emotion or temperature, to split the data on. A Gini Impurity measure will help us make this decision.
-Formula:
-probability of all classes=p1*(2*PL1*PL2)+P2*(2*Pr*Pr2)
-Gini=1-probability of sum of square of all the classes
-2 because there are two groups of data.
-p1 is probabiliity of sick
-p2 is probabiliity of no sick
-PL1 is probability of sick who stay at home
-PL2 is probability of sick who doesn't stay at home
-Pr1 is probability of nosick who stay at home
-Pr2 is probability of nosick who doesn't stay at home
-p1=no of sick people/total no of people
-p2=no of no sick people/total no of people</t>
   </si>
   <si>
     <t>when to use gini impurity?
@@ -6375,21 +6194,6 @@
   </si>
   <si>
     <t>Mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The mode is the most frequent score in our data set. On a histogram it represents the highest bar in a bar chart or histogram. You can, therefore, sometimes consider the mode as being the most popular option. </t>
-  </si>
-  <si>
-    <t>the mode is used for categorical data where we wish to know which is the most common category</t>
-  </si>
-  <si>
-    <t>one of the problems with the mode is that it is not unique, so it leaves us with problems when we have two or more values that share the highest frequency.</t>
-  </si>
-  <si>
-    <t>We are now stuck as to which mode best describes the central tendency of the data. This is particularly problematic when we have continuous data because we are more likely not to have any one value that is more frequent than the other. For example, consider measuring 30 peoples' weight (to the nearest 0.1 kg). How likely is it that we will find two or more people with exactly the same weight (e.g., 67.4 kg)? The answer, is probably very unlikely - many people might be close, but with such a small sample (30 people) and a large range of possible weights, you are unlikely to find two people with exactly the same weight; that is, to the nearest 0.1 kg. This is why the mode is very rarely used with continuous data.</t>
-  </si>
-  <si>
-    <t>Another problem with the mode is that it will not provide us with a very good measure of central tendency when the most common mark is far away from the rest of the data in the data se</t>
   </si>
   <si>
     <t>Median</t>
@@ -10515,34 +10319,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Bagging (Bootstrap Aggregating) is an ensemble machine learning technique that improves model accuracy and robustness by training multiple models on different subsets of the training data, with replacement, and then combining their predictions. It reduces variance, minimizes overfitting, and enhances model generalization by leveraging the wisdom of multiple diverse models.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>What is the role of bagging in Random Forest?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Answer: Bagging (Bootstrap Aggregating) is a technique used in Random Forest to create multiple subsets of the training data by sampling with replacement. Each tree in the ensemble is trained on one of these subsets. Bagging helps introduce diversity among the trees and reduces the risk of overfitting.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -12767,10 +12543,6 @@
 Level-wise tree growth ensures that the tree has the same depth for all branches and is less likely to result in very deep trees. It can be seen as a form of "greedy" tree construction that focuses on creating a balanced structure.
 The level-wise approach is less likely to overfit because it avoids creating very deep trees, but it may not capture as complex patterns in the data as the leaf-wise approach</t>
     </r>
-  </si>
-  <si>
-    <t>Automatic Pruning:
-XGBoost's gain-based pruning, combined with the regularization terms and its ability to recognize sparsity, results in automatic pruning of branches or subtrees that are less informative or do not significantly improve the loss function. By pruning regions with little predictive power, XGBoost creates more compact and efficient trees.</t>
   </si>
   <si>
     <r>
@@ -13437,15 +13209,6 @@
     <t>how boosting works</t>
   </si>
   <si>
-    <t>Here’s how the algorithm works:
-Step 1: The base algorithm reads the data and assigns equal weight to all the 10 records. 
- Equal weight means every sample has the equal probabilty to get selected into D1 which is the sample dataset for training model M1.
- The trained model is known as  the base learner.
-Step 2: The base learner will now be tested with all the 10 records, False predictions made by the base learner are identified.
- In the next iteration, these false predictions are given higher weightage compared to the truely predicted samples which makes them more
-probable of being selected to be trained using the next base learners.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -13726,68 +13489,6 @@
 https://analyticsindiamag.com/xgboost-internal-working-to-make-decision-trees-and-deduce-predictions/</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. calculate the average of the label column, and subtract the average value from the actual target value to get the residuals.
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Build an XGBoost Tree:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Each tree starts with a single leaf and all the residuals go into that leaf.
-Now we need to calculate something called a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Similarity Score</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> of this leaf.
-we take a feature from the dataset and try to split the residuals based on that feature.
-if the feature is a categorical column and has two categories, we split the residuals based on the categories.
-we calculate the similarity score for two leaf nodes after the split and also calculate the similarity score for root node w.r.to residuals.
-Now we need to quantify how much better the leaves cluster similar Residuals than the root does. We can do this by calculating the Gain of splitting the Residuals into two groups. If the Gain is positive, then it’s a good idea to split, otherwise, it is not.
-we use these similarity scores to get the information gained:
-Gain=Similarity score of leaf node1+similarity score of leaf node2- similarity score of the root node.
-Then we compare this Gain to those of the splits in other features. The split with the highest gain will be used as the first split
-XGBoost uses a gain-based pruning strategy, which means that it evaluates the potential gain associated with each split. If the gain from a split is not significant, indicating that the split does not lead to a substantial reduction in the loss, XGBoost may choose not to split the node further.
-XGBoost's regularization terms, specifically L1 (Lasso) and L2 (Ridge) regularization, play a crucial role in pruning.
-If a branch or subtree contains a sparse region of data, and if that region contributes little to the gain due to its sparsity, XGBoost is more likely to prune it.
-3.  Now we can add more branches to the tree by splitting the initial split. we use the other features here to split and choose the best one with the highest information gain. But, only this time, we use the initial split leaves as our root nodes and try splitting them by getting the greatest Gain value that is greater than 0.
-This is how we build the XG Boost Tree.</t>
-    </r>
-  </si>
-  <si>
     <t>What is the significance of the gamma parameter in XGBoost?
 Answer: The gamma parameter controls the minimum loss reduction required for a node to split during tree construction, acting as a regularization term to prevent overfitting.</t>
   </si>
@@ -13837,31 +13538,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>When to use LightGBM?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-LightGBM is not for a small volume of datasets. It can easily overfit small data due to its sensitivity. It can be used for data having more than 10,000+ rows. There is no fixed threshold that helps in deciding the usage of LightGBM. It can be used for large volumes of data especially when one needs to achieve a high accuracy.
-Note: when you are working on a local machine, use LGBM when you have GPU or clusters using XGBoost.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Explain the concept of histogram-based learning in LightGBM.</t>
     </r>
     <r>
@@ -13903,9 +13579,6 @@
       <t xml:space="preserve">
 Answer: LightGBM can handle continuous features using binning during histogram-based learning. For discrete features, it directly incorporates them into the tree construction process without requiring one-hot encoding.</t>
     </r>
-  </si>
-  <si>
-    <t>How does Ordered Target Encoding Works when the target variable</t>
   </si>
   <si>
     <t>How to Check Each Assumption and what to do 
@@ -17448,6 +17121,1166 @@
   </si>
   <si>
     <t>Feature scaling types</t>
+  </si>
+  <si>
+    <t>How to decide which encoding Technique to use</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Label Encoding:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Suitable for ordinal data where there is a meaningful order among categories.
+Considered when the ordinal relationship between categories is essential.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>One-Hot Encoding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Appropriate for nominal data with no inherent order among categories.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ordinal Encoding:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Used when there is an ordinal relationship among categories, but the ordinal values are not straightforward integers.
+Assigns ordinal ranks to categories based on predefined mapping.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frequency Encoding:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Encodes categories based on their frequency in the dataset.
+Useful when the frequency of categories carries meaningful information.</t>
+    </r>
+  </si>
+  <si>
+    <t>Data is nominal with lot of categories, how to deal with this</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Top N or Frequency Encoding:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Encode only the top N most frequent categories and group the remaining categories into an "other" category.
+This helps reduce the dimensionality while retaining information about the most common categories.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clustering or Binning:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Cluster similar categories based on some criteria and encode them as a single feature.
+This can be effective when there are natural groupings among categories.</t>
+    </r>
+  </si>
+  <si>
+    <t>How Gini Impurity Works</t>
+  </si>
+  <si>
+    <t>Assume we have a parent node with a dataset containing various instances, each labeled with a specific class.
+The decision tree algorithm selects a feature and a split point that minimizes Gini impurity after the split. This results in two child nodes.
+Before the split, the Gini impurity for the parent node is calculated using the distribution of class labels in the entire dataset.
+The dataset is divided into two subsets based on the chosen split criterion: one subset for the left child node and another for the right child node.
+For each child node, the Gini impurity is calculated separately using the distribution of class labels in the corresponding subset.
+Let Gini left be the Gini impurity for the left child node, and Gini right be the Gini impurity for the right child node.
+The overall Gini impurity for the parent node after the split is a weighted average of the Gini impurity of the left and right child nodes.
+The goal is to minimize the overall Gini impurity by selecting splits that result in more homogeneous child nodes.
+By calculating the Gini impurity for the parent node before the split, the algorithm has a measure of the initial impurity or disorder in the dataset.
+The reduction in impurity achieved by a split is a crucial metric for evaluating the quality of the split.
+Gini Impurity Reduction:
+The reduction in Gini impurity is computed by comparing the Gini impurity of the parent node with the weighted average of Gini impurities in the resulting child nodes.
+A greater reduction in impurity indicates a more effective split.</t>
+  </si>
+  <si>
+    <t>Gini Impurity:
+Gini Impurity tells us what is the probability of misclassifying an observation. 
+It is calculated by subtracting the sum of squared probabilities of each class from one. 
+It favors larger partitions and easy to implement whereas information gain favors smaller partitions with distinct values.
+The Gini impurity measure is one of the methods used in decision tree algorithms to decide the optimal split from a root node, and subsequent splits.
+Def: Gini Impurity tells us what is the probability of misclassifying an observation.
+For calculating the Gini impurity of a continous feature we take a threshold value to split the data.
+Note that the lower the Gini the better the split. In other words the lower the likelihood of misclassification.
+lesser the value of Gini Impurity, more is the probability of using the feature as the root node or internal node.
+formula
+Suppose we have a list of observations, that indicates if a person decided to stay home from work. 
+We also have two features, namely if they are sick and their temperature.
+We need to choose which feature, emotion or temperature, to split the data on. A Gini Impurity measure will help us make this decision.
+Formula:
+probability of all classes=p1*(2*PL1*PL2)+P2*(2*Pr*Pr2)
+Gini=1-probability of the sum of squares of all the classes
+2 because there are two groups of data.
+p1 is probability of sick, p2 is probability of no sick
+PL1 is the probability of sick who stay at home,PL2 is the probability of sick who doesn't stay at home
+P r1 is the probability of no sick who stay at home. Pr2 is the probability of nosick who doesn't stay at home
+p1=no of sick people/total no of people,p2=no of no sick people/total no of people</t>
+  </si>
+  <si>
+    <t>lets say Gini Impurity is showing high values for child nodes than the parent nodes for all the features at various split points, what to do?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explore Different Parameters:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Check if there are hyperparameters of the decision tree algorithm that can be adjusted, such as the maximum depth of the tree or the minimum number of samples required to make a split. Modifying these parameters might influence the structure of the tree.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pruning the Tree:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Consider pruning the tree. Pruning involves removing branches or nodes that do not contribute significantly to the predictive power of the model. It helps prevent overfitting and can result in a simpler, more interpretable tree.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Consider Alternative Splitting Criteria:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+While Gini impurity is a common splitting criterion, consider trying alternative criteria such as entropy or the misclassification rate. Some datasets may exhibit different characteristics that make one criterion more suitable than others.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Data Preprocessing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Review your data preprocessing steps. Ensure that missing values are handled appropriately, and categorical variables are encoded properly. Poor preprocessing can impact the tree's ability to find meaningful splits.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cross-Validation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Use cross-validation to assess the model's performance on different subsets of the data. This can help you identify whether the lack of improvement in impurity reduction is consistent across different folds.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">steps in decision tree regressor: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+same as above but the impurity factor used is standard deviation reduction.
+At each potential split point, the algorithm calculates the variance of the target variable in the resulting subsets.
+The variance of a set of values is the average of the squared differences between each value and the mean of the set.
+The algorithm considers all features and their possible split points.
+For each feature and split point, it calculates the variance reduction, which is the difference between the variance of the current dataset and the weighted sum of variances in the resulting subsets after the split.
+ The feature with minimum variance reduction is used as the feature to split 
+variance reduction=var(Y)-(% of datapoints in subset1*var(subset1)-% of datapoints in subset2*var(subset2)
+Var(Y) is the variance in the parent node.</t>
+    </r>
+  </si>
+  <si>
+    <t>entropy only gives the impurity of a certain feature. But we need to find which feature can be used as root node and for that which feature could be child node. We need to find those kind of combinations for that we use Information gain.
+with the help of information gain we will be able to know which feature is good at each node given a root node.
+Definition: Information gain (IG) measures how much “information” a feature gives us about the class.
+The main node is referred to as the parent node, whereas sub-nodes are known as child nodes. We can use information gain to determine how good the splitting of nodes in a decision tree.
+IG(Y,X)=E(Y)-summation of E(Y,X)
+what the above formula means is E(Y) is the entropy of the feature in the root node.
+summation of E(Y, X) summation of all the entropy of the sub splits after the root node.
+feature with higher IG is optimal split.
+which means that if i chose x as a root node what could be the ideal splits in child nodes and whether the entropy is decreasing or not.</t>
+  </si>
+  <si>
+    <t>Bootstrap is a statistical resampling technique that involves drawing random samples with replacement from a dataset to create new samples. In the context of machine learning, bootstrap is commonly used to generate multiple subsets of the original dataset. Each subset is created by randomly selecting instances from the original dataset, allowing some instances to be selected multiple times (with replacement) and others not at all. This process creates new datasets of the same size as the original, but with variations in the composition of instances.
+The term "aggregation" refers to the process of combining the predictions of multiple models to produce a final prediction. The primary goal of aggregation in bagging is to improve the overall predictive performance and robustness of a model.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initialize Weights:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Assign equal weights to all instances in the training dataset.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Train Weak Model:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Train a weak learner (e.g., a decision tree) on the entire dataset with the initial weights.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compute Error and Model Weight:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compute the error of the weak model based on misclassifications. Assign a weight to the model based on its error.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Update Instance Weights:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Adjust the weights of instances based on their importance. Instances that were misclassified receive higher weights, and instances that were correctly classified receive lower weights.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Normalize Weights:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Normalize the instance weights to ensure they sum to 1.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Build Next Weak Model:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Train the next weak learner on the entire dataset with the updated instance weights.</t>
+    </r>
+  </si>
+  <si>
+    <t>multiple permutatitions while encoding</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. calculate the average of the label column, and subtract the average value from the actual target value to get the residuals.
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Build an XGBoost Tree:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Each tree starts with a single leaf and all the residuals go into that leaf.
+Now we need to calculate something called a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Similarity Score</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of this leaf.
+we take a feature from the dataset and try to split the residuals based on that feature.
+if the feature is a categorical column and has two categories, we split the residuals based on the categories.
+we calculate the similarity score for two leaf nodes after the split and also calculate the similarity score for root node w.r.to residuals.
+Now we need to quantify how much better the leaves cluster similar Residuals than the root does. We can do this by calculating the Gain of splitting the Residuals into two groups. If the Gain is positive, then it’s a good idea to split, otherwise, it is not.
+we use these similarity scores to get the information gained:
+Gain=Similarity score of leaf node1+similarity score of leaf node2- similarity score of the root node.
+Then we compare this Gain to those of the splits in other features. The split with the highest gain will be used as the first split
+XGBoost uses a gain-based pruning strategy, which means that it evaluates the potential gain associated with each split. If the gain from a split is not significant, indicating that the split does not lead to a substantial reduction in the loss, XGBoost may choose not to split the node further. This is done by defining a threshold value and if the loss is greater than threshold, then xgboost will stop further splitting of that node.
+XGBoost's regularization terms, specifically L1 (Lasso) and L2 (Ridge) regularization, play a crucial role in pruning.
+If a branch or subtree contains a sparse region of data, and if that region contributes little to the gain due to its sparsity, XGBoost is more likely to prune it.
+3.  Now we can add more branches to the tree by splitting the initial split. we use the other features here to split and choose the best one with the highest information gain. But, only this time, we use the initial split leaves as our root nodes and try splitting them by getting the greatest Gain value that is greater than 0.
+This is how we build the XG Boost Tree.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automatic Pruning:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+XGBoost's gain-based pruning, combined with the regularization terms and its ability to recognize sparsity, results in automatic pruning of branches or subtrees that are less informative or do not significantly improve the loss function. By pruning regions with little predictive power, XGBoost creates more compact and efficient trees.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>XGBoost early Stopping:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+XGBoost supports early stopping, where training stops once the model's performance on a validation set ceases to improve. This prevents overfitting and saves computation time.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Distributed Computing:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+XGBoost has a distributed version called Dask XGBoost, allowing it to scale horizontally and handle even larger datasets distributed across multiple machines.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When to use LightGBM?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+LightGBM is not for a small volume of datasets. It can easily overfit small data due to its sensitivity. It can be used for data having more than 10,000+ rows. There is no fixed threshold that helps in deciding the usage of LightGBM. It can be used for large volumes of data especially when one needs to achieve a high accuracy.
+Note: when you are working on a local machine, use LGBM when you have GPU or clusters using XGBoost.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reduced Overfitting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Symmetric trees can help reduce overfitting by enforcing a more constrained tree structure. The symmetry property limits the complexity of individual trees, making them less prone to fitting noise in the training data.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Better Generalization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The use of symmetric trees encourages better generalization to unseen data. Trees with a more balanced and symmetric structure are likely to capture more robust patterns in the data and avoid capturing noise.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Improved Interpretability:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Symmetric trees tend to be more interpretable than highly asymmetrical ones. The balanced structure makes it easier to understand the hierarchy of features and decisions in the tree, enhancing model interpretability.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Efficient Splitting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The symmetric splitting strategy used in CatBoost allows for more efficient memory access during tree traversal. This can lead to faster training and prediction times, especially when dealing with large datasets.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Robustness to Data Distribution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Symmetric trees are less sensitive to variations in the distribution of features, contributing to the model's robustness. This robustness can be beneficial when dealing with diverse datasets or datasets with imbalanced feature distributions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reduction in Tree Depth:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The symmetric tree structure tends to result in shallower trees. Shallow trees are computationally more efficient, and their predictions are often faster to compute.</t>
+    </r>
+  </si>
+  <si>
+    <t>Features of Symmetric trees</t>
+  </si>
+  <si>
+    <t>Symmetric Trees</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Symmetric trees in Catboost:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+the concept of symmetric trees in CatBoost refers to a specific way decision nodes are split at each level of a tree. 
+Unlike traditional gradient boosting algorithms where each node can have a different split condition, catboost ensures that there is only one condition at each level.
+CatBoost enforces a symmetric structure within each level of the decision trees it builds. 
+This can have a positive impact on training efficiency and generalization.
+the symmetric structure means that all decision nodes at the same level share the same split condition.
+For example there are 2 child nodes in assymetric trees based on the data there can be different condition but in catboost both child nodes will have same condition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How does Ordered Target Encoding Work when the target variable is continous
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sort the Categories:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For an ordinal categorical variable, start by sorting the unique categories based on their inherent order or ranking. Ensure that the order reflects the meaningful relationship between the categories.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Calculate the Mean or Median Target Value:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For each category, calculate the mean or median of the target variable for the instances belonging to that category. This involves grouping the dataset by the categorical variable and computing the mean or median of the target variable within each group.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Assign Encoded Values:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Assign the calculated mean or median target value to each category. The idea is to encode each category with a numerical value that reflects the average target variable value associated with instances in that category.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply Encoding to the Dataset:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Replace the original categorical variable with the calculated ordered target encoding values in the dataset. The result is a numerical representation of the ordinal categorical variable based on the average target variable values associated with each category.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In situations where certain categories have limited data, the estimates of these means can be unreliable and exhibit significant variability.
+To address this challenge, CatBoost proposes a method that involves generating multiple random permutations of the training data and creating a separate encoding for each permutation. The key idea is to introduce randomness by considering different orderings of the instances in the training set. The ultimate outcome is then obtained by averaging or aggregating these distinct encodings.
+The key idea is to introduce randomness by considering different orderings of the instances in the training set. The ultimate outcome is then obtained by averaging or aggregating these distinct encodings.
+Here's a step-by-step explanation of the process:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Generate Random Permutations:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For each training set, create a random permutation of the instances. This means shuffling the order of the rows in the training data randomly.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create Encoding for Each Permutation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+For each random permutation, calculate a target encoding for the categorical feature based on the shuffled order of instances. This involves computing the mean of the target variable for each category in the feature.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repeat Steps 1-2 Multiple Times:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Repeat the process of generating random permutations and creating encodings for each permutation multiple times (e.g., K times). This introduces variability and diversity in the target encodings.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Aggregate Encodings:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Finally, aggregate or average the K distinct encodings obtained from different permutations. This aggregation is done for each category in the categorical feature.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is KNN?
+KNN means K-Nearest Neighbour Algorithm. It can be used for both classification and regression.
+Also known as lazy learning. The KNN algorithm assumes that similar things exist nearby. In other words, similar things are near to each other.
+K-NN is a non-parametric algorithm, which means it does not make any assumption on underlying data.
+It is also called a lazy learner algorithm because it does not learn from the training set immediately instead it stores the dataset and at the time of classification, it performs an action on the dataset.
+KNN doesn't learn anything from the data it only keeps the training data as a reference to predict the values at testing time.
+During the testing phase, it tries to find the distance between each training datapoint with and the testing data point.
+we need to mention the no of neighbors it should take into account.
+after calculating the distance between each training datapoint w.r.to testing point it will sort all the values.
+suppose let's say k=5
+then it will consider the top  5 sorted values and look at each class of training data point.
+the majority class will be taken as the class of test data point
+There are many distance measures to choose from to match the structure of your input data.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Example:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Suppose, we have an image of a creature that looks similar to a cat and a dog, but we want to know whether it is a cat or a dog. So for this identification, we can use the KNN algorithm, as it works on a similarity measure. Our KNN model will find the similar features of the new data set to the cats and dogs images and based on the most similar features it will put it in either cat or dog category.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manhattan Distance:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Manhattan distance, also known as L1 distance or taxicab distance, is a way to measure the distance between two points in a grid-based system (like a city grid) by considering only horizontal and vertical movements. In simple terms, it's like measuring the distance you would travel to get from one point to another on a grid of streets, where you can only move horizontally or vertically, and not diagonally.
+Imagine you are in a city and need to travel from one intersection to another. Instead of going directly ("as the crow flies"), you follow the grid of streets. The Manhattan distance is the total number of blocks you would need to walk horizontally and vertically to reach your destination.So, the Manhattan distance in a 2-dimensional space is given as:
+manhattan distance=|y2-y1| +|x2-x1|
+manhattan distance is also known as l1 norm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>what is cosine similarity?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Cosine Similarity measures the cosine of the angle between two non-zero vectors of an inner product space. 
+This similarity measurement is particularly concerned with orientation, rather than magnitude. 
+As the cosine distance between the data points increases, the cosine similarity, or the amount of similarity decreases, and vice versa. Thus, Points closer to each other are more similar than points that are far away from each other. Cosine similarity is given by Cos θ, and cosine distance is 1- Cos θ. 
+In short, two cosine vectors that are aligned in the same orientation will have a similarity measurement of 1, 
+whereas two vectors aligned perpendicularly will have a similarity of 0. If two vectors are diametrically opposed, 
+meaning they are oriented in exactly opposite directions (i.e. back-to-back), 
+then the similarity measurement is -1
+The output will produce a value ranging from -1 to 1, indicating similarity where -1 is non-similar,
+ 0 is orthogonal (perpendicular), and 1 represents total similarity.
+ Cosine Similarity measurement to distinguish and compare documents to each other based upon their similarities and overlap of subject matter.
+Where is it used?
+Cosine metric is mainly used in Collaborative Filtering based recommendation systems to offer future recommendations to users.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How does Pearson Correlation work?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Collect data for two variables, let's call them X and Y, with n data points. Ensure that the data is continuous and numerical.
+Compute the mean of X and the mean of Y, and name them Xbar and Ybar respectively.
+Find the difference between each data point and the mean for both X and Y.
+Calculate the covariance Cov(X, Y)) by taking the sum of the product of the differences for each pair of data points and dividing by n.
+Cov(X,Y)=summation of i=1 to n (xi-Xbar)*(yi-Ybar)/n
+n is the no. of data points.
+Compute the standard deviations of X and Y using the square root of the sum of squared differences from the mean.
+Use the formula for the Pearson correlation coefficient (r):
+cov(X,Y)/SD(x)*SD(Y)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -17939,10 +18772,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -18038,6 +18867,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -18075,8 +18908,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5109772-9D31-4797-9B74-E596C1061C8C}" name="Table1" displayName="Table1" ref="A1:C24" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="1">
-  <autoFilter ref="A1:C24" xr:uid="{B5109772-9D31-4797-9B74-E596C1061C8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5109772-9D31-4797-9B74-E596C1061C8C}" name="Table1" displayName="Table1" ref="A1:C26" totalsRowShown="0" headerRowBorderDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="A1:C26" xr:uid="{B5109772-9D31-4797-9B74-E596C1061C8C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{09455050-DD84-4403-BFE1-4D57B2D5A5FC}" name="Topic" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{73411423-A3CE-4693-99F8-BF0FCEABB27C}" name="Answer"/>
@@ -18437,7 +19270,7 @@
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -18453,7 +19286,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -18477,7 +19310,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -18485,7 +19318,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -18493,12 +19326,12 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -18516,7 +19349,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -18524,7 +19357,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -18532,7 +19365,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -18540,7 +19373,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -18548,7 +19381,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -18556,7 +19389,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
@@ -18564,7 +19397,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
@@ -18572,7 +19405,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -18580,7 +19413,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
@@ -18588,7 +19421,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
@@ -18596,7 +19429,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -18604,7 +19437,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -18612,12 +19445,12 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -18625,7 +19458,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -18633,7 +19466,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -18641,7 +19474,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -18649,7 +19482,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -18657,7 +19490,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -18665,7 +19498,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -18673,7 +19506,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -18681,7 +19514,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -18689,7 +19522,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -18697,15 +19530,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="B41" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -18713,7 +19546,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -18738,37 +19571,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>1147</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1149</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1148</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>1150</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1151</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1152</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1153</v>
+        <v>1126</v>
       </c>
     </row>
   </sheetData>
@@ -18792,98 +19625,98 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1155</v>
+        <v>1128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1154</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1156</v>
+        <v>1129</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1159</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1157</v>
+        <v>1130</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1160</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1158</v>
+        <v>1131</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1161</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1162</v>
+        <v>1135</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1165</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1163</v>
+        <v>1136</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1164</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1167</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1168</v>
+        <v>1141</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1166</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="319.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1169</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1170</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1171</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>1172</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1173</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>1174</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>1175</v>
+        <v>1148</v>
       </c>
     </row>
   </sheetData>
@@ -18915,317 +19748,317 @@
     </row>
     <row r="2" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1048</v>
+        <v>1021</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1049</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>1050</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
-        <v>824</v>
+        <v>803</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>853</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>826</v>
+        <v>805</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>827</v>
+        <v>806</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>830</v>
+        <v>809</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>831</v>
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>836</v>
+        <v>815</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>835</v>
+        <v>814</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1051</v>
+        <v>1024</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>837</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>1053</v>
+        <v>816</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>1026</v>
       </c>
       <c r="C26" s="11"/>
     </row>
     <row r="27" spans="1:3" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1052</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="271.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>819</v>
+        <v>798</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>820</v>
+        <v>799</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="3" t="s">
-        <v>821</v>
+        <v>800</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1054</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="1" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1055</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -19263,127 +20096,127 @@
     </row>
     <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1059</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1056</v>
+        <v>1029</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1057</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1058</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1061</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1062</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>1060</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1063</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -19422,132 +20255,132 @@
     </row>
     <row r="2" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>855</v>
+        <v>834</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>854</v>
+        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>857</v>
+        <v>836</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>856</v>
+        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J22" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -19561,7 +20394,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" activeCellId="1" sqref="C13:XFD13 A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19580,90 +20413,90 @@
     </row>
     <row r="2" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>209</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>215</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>223</v>
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -19675,8 +20508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07C7ED02-B2A3-44F0-8AD2-11D5C96913A5}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19694,65 +20527,65 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
-        <v>179</v>
+      <c r="A2" s="63" t="s">
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="1" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -19766,10 +20599,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84043C21-F3D5-4EB8-82F0-8CACB5EFF6E7}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19786,204 +20619,221 @@
         <v>12</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>253</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>277</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>847</v>
+        <v>826</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>848</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>850</v>
+        <v>829</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="267" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>257</v>
+        <v>1166</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1167</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="360" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
+        <v>243</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>281</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>283</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>375</v>
+        <v>1169</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>308</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>303</v>
+    </row>
+    <row r="27" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -20003,8 +20853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425C52BC-ABC6-48CA-AB80-9C3D4AAC6A35}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20023,193 +20873,193 @@
     </row>
     <row r="2" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1022</v>
+        <v>999</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>868</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>843</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>864</v>
+        <v>843</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="345" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>844</v>
-      </c>
-      <c r="B9" s="56" t="s">
-        <v>1016</v>
+        <v>823</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>993</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>845</v>
+        <v>824</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>846</v>
+        <v>825</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>867</v>
+        <v>846</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>1024</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>1017</v>
+        <v>994</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>1021</v>
+        <v>998</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>1019</v>
+        <v>996</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>872</v>
+        <v>850</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>873</v>
+        <v>851</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>1018</v>
+        <v>995</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>1020</v>
+        <v>997</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>874</v>
+        <v>852</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>870</v>
+        <v>848</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>875</v>
+        <v>853</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>865</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -20218,120 +21068,140 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949897B9-D087-4508-9CD9-D2925CABF6F5}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FE3F15-1510-4027-A9CE-4CA8CC858E9A}">
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B21" sqref="B19:B21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" customWidth="1"/>
-    <col min="2" max="2" width="154.33203125" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="140.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" s="11" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="360" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>338</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>322</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>346</v>
-      </c>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>349</v>
-      </c>
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>487</v>
-      </c>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>445</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>1040</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{3AE02AA9-8E4D-42C7-BB9E-C2AD5C5033B0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20359,96 +21229,96 @@
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>961</v>
+        <v>939</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>962</v>
+        <v>940</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>963</v>
+        <v>941</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>966</v>
+        <v>944</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>965</v>
+        <v>943</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="B15" s="54" t="s">
-        <v>968</v>
+      <c r="B15" s="52" t="s">
+        <v>946</v>
       </c>
     </row>
   </sheetData>
@@ -20457,140 +21327,120 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FE3F15-1510-4027-A9CE-4CA8CC858E9A}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949897B9-D087-4508-9CD9-D2925CABF6F5}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="140.88671875" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="2" max="2" width="154.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+        <v>971</v>
+      </c>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1026</v>
+        <v>328</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>339</v>
+        <v>329</v>
+      </c>
+      <c r="C4" s="11"/>
+    </row>
+    <row r="5" spans="1:3" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>322</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>338</v>
-      </c>
+        <v>1176</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="B10" s="1" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="B11" s="1" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>471</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>461</v>
-      </c>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>374</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3AE02AA9-8E4D-42C7-BB9E-C2AD5C5033B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20610,7 +21460,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -20618,34 +21468,34 @@
     </row>
     <row r="2" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -20655,10 +21505,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D4FAAC-BCDA-4CBE-8D53-2495B98E6967}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20676,136 +21526,160 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
-        <v>514</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>515</v>
+      <c r="A2" s="68" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>863</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="292.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>423</v>
+        <v>1175</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>357</v>
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1181</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1180</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="C17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>375</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>999</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>976</v>
       </c>
     </row>
   </sheetData>
@@ -20821,8 +21695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{902C1B62-52AA-4667-A002-2C81E7E75AB7}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20833,124 +21707,124 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1043</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1042</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1044</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1045</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1046</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -20975,543 +21849,543 @@
     <col min="2" max="2" width="170.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="36" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:2" s="34" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>1103</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>1104</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>802</v>
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="248.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1101</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1102</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1099</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1100</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1004</v>
+        <v>981</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>1005</v>
+        <v>982</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>803</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1003</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1105</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>599</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>1106</v>
+        <v>578</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1180</v>
+        <v>1153</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1181</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="354.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1107</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>973</v>
+        <v>951</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>972</v>
+        <v>950</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>804</v>
+        <v>783</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>805</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>974</v>
+        <v>952</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1108</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1176</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>975</v>
+        <v>953</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>976</v>
+        <v>954</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1008</v>
+        <v>985</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>606</v>
-      </c>
-      <c r="B35" s="40" t="s">
-        <v>978</v>
+        <v>585</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>608</v>
+        <v>587</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>607</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1177</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>610</v>
+        <v>589</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>611</v>
+        <v>590</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>612</v>
+        <v>591</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>614</v>
+        <v>593</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>615</v>
+        <v>594</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>616</v>
+        <v>595</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="180" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>617</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>981</v>
+        <v>596</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B44" s="38" t="s">
-        <v>621</v>
+        <v>364</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>622</v>
-      </c>
-      <c r="B45" s="38" t="s">
-        <v>1111</v>
+        <v>601</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="90" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>624</v>
+        <v>602</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>618</v>
+        <v>372</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="405" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>980</v>
+        <v>957</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>619</v>
+        <v>598</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1112</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>620</v>
+        <v>599</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1009</v>
+        <v>986</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
-        <v>625</v>
+        <v>604</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>626</v>
+        <v>605</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>1010</v>
+        <v>987</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>627</v>
+        <v>606</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1113</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>628</v>
+        <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>1011</v>
+        <v>988</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>809</v>
+        <v>788</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>811</v>
+        <v>790</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>812</v>
+        <v>791</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>806</v>
+        <v>785</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>629</v>
+        <v>608</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1109</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>631</v>
+        <v>610</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>630</v>
+        <v>609</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>800</v>
+        <v>779</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>801</v>
+        <v>780</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>1110</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>1178</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>799</v>
+        <v>778</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>798</v>
+        <v>777</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>1012</v>
+        <v>989</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>717</v>
-      </c>
-      <c r="B73" s="38" t="s">
-        <v>1114</v>
+        <v>696</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="B74" s="42" t="s">
-        <v>718</v>
+      <c r="B74" s="40" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="B75" s="42" t="s">
-        <v>719</v>
+      <c r="B75" s="40" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>1116</v>
+        <v>1089</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1115</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>1082</v>
+        <v>1055</v>
       </c>
     </row>
   </sheetData>
@@ -21535,39 +22409,39 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>1066</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1065</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
-        <v>545</v>
+      <c r="A6" s="62" t="s">
+        <v>524</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1064</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
+      <c r="A7" s="62"/>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
@@ -21576,10 +22450,10 @@
     </row>
     <row r="8" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -21589,203 +22463,203 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>1067</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
-        <v>582</v>
+      <c r="A21" s="33" t="s">
+        <v>561</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1068</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
-        <v>583</v>
+      <c r="A22" s="32" t="s">
+        <v>562</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>584</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
-        <v>585</v>
+      <c r="A23" s="32" t="s">
+        <v>564</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
-        <v>657</v>
+      <c r="A24" s="32" t="s">
+        <v>636</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1074</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="295.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
-        <v>658</v>
+      <c r="A25" s="32" t="s">
+        <v>637</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>838</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="274.8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>1075</v>
+        <v>1048</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>1076</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="210" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>1077</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
-        <v>659</v>
+      <c r="A29" s="32" t="s">
+        <v>638</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>839</v>
+        <v>818</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
+      <c r="A30" s="32"/>
       <c r="B30" s="1" t="s">
-        <v>1069</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
-        <v>1071</v>
+      <c r="A31" s="32" t="s">
+        <v>1044</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1070</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
-        <v>632</v>
+      <c r="A32" s="32" t="s">
+        <v>611</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1072</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A33" s="34" t="s">
-        <v>633</v>
+      <c r="A33" s="32" t="s">
+        <v>612</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>634</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="270" x14ac:dyDescent="0.35">
-      <c r="B34" s="40" t="s">
-        <v>635</v>
+      <c r="B34" s="38" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>858</v>
+        <v>837</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>859</v>
+        <v>838</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="300" x14ac:dyDescent="0.35">
-      <c r="A36" s="34" t="s">
-        <v>511</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>1073</v>
+      <c r="A36" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -21793,65 +22667,65 @@
         <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
-        <v>640</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>1078</v>
+      <c r="A38" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>641</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>840</v>
+      <c r="A39" s="33" t="s">
+        <v>620</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B40" s="41" t="s">
-        <v>636</v>
+      <c r="B40" s="39" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="195" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>638</v>
+        <v>616</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>642</v>
+        <v>621</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1080</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1079</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>644</v>
+        <v>623</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -21880,7 +22754,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1081</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
@@ -21888,15 +22762,15 @@
         <v>15</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>841</v>
+        <v>820</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>646</v>
+        <v>625</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>645</v>
+        <v>624</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
@@ -21904,61 +22778,61 @@
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1083</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>647</v>
+        <v>626</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>1084</v>
+        <v>1057</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1085</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="B53" s="57" t="s">
-        <v>1087</v>
+        <v>628</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
-        <v>1090</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>1088</v>
+        <v>1061</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1089</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="360" x14ac:dyDescent="0.3">
@@ -21966,7 +22840,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1086</v>
+        <v>1059</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -21980,7 +22854,7 @@
     </row>
     <row r="60" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>31</v>
@@ -21990,7 +22864,7 @@
     </row>
     <row r="61" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>32</v>
@@ -22000,492 +22874,492 @@
     </row>
     <row r="62" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1092</v>
+        <v>1065</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1093</v>
+        <v>1066</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B73" s="3" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="B75" s="38" t="s">
-        <v>660</v>
+        <v>217</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
-        <v>661</v>
+        <v>640</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A77" s="15" t="s">
-        <v>662</v>
+        <v>641</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A80" s="15" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1097</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>666</v>
+        <v>645</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>667</v>
+        <v>646</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A83" s="14" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A86" s="16" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="C86" s="11"/>
     </row>
     <row r="87" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A87" s="14" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1096</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>1094</v>
+        <v>1067</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1095</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A89" s="14" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>672</v>
+        <v>651</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="165" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>691</v>
-      </c>
-      <c r="B105" s="38" t="s">
-        <v>692</v>
+        <v>670</v>
+      </c>
+      <c r="B105" s="36" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B106" s="1" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>695</v>
+        <v>674</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>696</v>
+        <v>675</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>698</v>
+        <v>677</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>705</v>
+        <v>684</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>703</v>
+        <v>682</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>704</v>
+        <v>683</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.35">
-      <c r="B116" s="39" t="s">
-        <v>712</v>
+      <c r="B116" s="37" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="B117" s="38" t="s">
-        <v>714</v>
+        <v>692</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="B119" s="1" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B120" s="1" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B121" s="1" t="s">
-        <v>762</v>
+        <v>741</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B122" s="1" t="s">
-        <v>763</v>
+        <v>742</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B123" s="1" t="s">
-        <v>764</v>
+        <v>743</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B124" s="1" t="s">
-        <v>765</v>
+        <v>744</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B125" s="1" t="s">
-        <v>766</v>
+        <v>745</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="B126" s="1" t="s">
-        <v>767</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -22505,10 +23379,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F9766C-5467-4C6A-856C-E91C39450D47}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:XFD108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22527,1068 +23401,1014 @@
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="3" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A11" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A12" s="64"/>
+      <c r="B12" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>965</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="29" t="s">
+        <v>496</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>55</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="288" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
-      <c r="B24" s="1" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="1" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
-        <v>987</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>512</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>13</v>
+        <v>1161</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>21</v>
+        <v>1159</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>23</v>
+        <v>457</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>464</v>
+      </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
+    <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>459</v>
+      </c>
       <c r="B32" s="3" t="s">
-        <v>989</v>
+        <v>460</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>455</v>
+      </c>
       <c r="B34" s="3" t="s">
-        <v>990</v>
+        <v>456</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="409.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>24</v>
+        <v>463</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>26</v>
+    <row r="36" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>467</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>25</v>
+        <v>466</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:4" ht="360" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="B37" s="3"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
+    <row r="38" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>1162</v>
+      </c>
       <c r="B38" s="3" t="s">
-        <v>1185</v>
+        <v>1163</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
-        <v>7</v>
+    <row r="39" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>1164</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1187</v>
+        <v>1165</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>1188</v>
+        <v>55</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1186</v>
+        <v>1071</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
-        <v>7</v>
+    <row r="41" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="65" t="s">
+        <v>66</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>473</v>
-      </c>
+    <row r="42" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+      <c r="A42" s="65"/>
       <c r="B42" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>480</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>475</v>
-      </c>
+    <row r="43" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="65"/>
       <c r="B43" s="3" t="s">
-        <v>476</v>
+        <v>69</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
-        <v>478</v>
-      </c>
+    <row r="44" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="65"/>
       <c r="B44" s="3" t="s">
-        <v>477</v>
+        <v>70</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
-        <v>471</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>479</v>
+        <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
-        <v>483</v>
-      </c>
+    <row r="47" spans="1:4" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
-        <v>482</v>
+        <v>969</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="B48" s="3"/>
+    <row r="48" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="5"/>
+      <c r="B48" s="3" t="s">
+        <v>433</v>
+      </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="288" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1098</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="67" t="s">
-        <v>75</v>
+    <row r="50" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>62</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A51" s="67"/>
+    <row r="51" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
       <c r="B51" s="3" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="67"/>
+    <row r="52" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="67"/>
+    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="s">
+        <v>491</v>
+      </c>
       <c r="B53" s="3" t="s">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
+    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="65" t="s">
+        <v>84</v>
+      </c>
       <c r="B56" s="3" t="s">
-        <v>991</v>
+        <v>542</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
+      <c r="D56" s="10">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A57" s="65"/>
       <c r="B57" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>839</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" ht="288" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>72</v>
-      </c>
+    <row r="58" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="65"/>
       <c r="B58" s="3" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
-        <v>68</v>
+    <row r="59" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A59" s="42" t="s">
+        <v>840</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>841</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="5"/>
       <c r="B60" s="3" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="3" t="s">
-        <v>80</v>
+        <v>488</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
-        <v>507</v>
+    <row r="62" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>509</v>
+        <v>94</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>563</v>
-      </c>
+    <row r="64" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="10">
-        <v>44935</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A66" s="67"/>
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="65" t="s">
+        <v>119</v>
+      </c>
       <c r="B66" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="67"/>
+    <row r="67" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="65"/>
       <c r="B67" s="3" t="s">
-        <v>95</v>
+        <v>1155</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A68" s="44" t="s">
-        <v>861</v>
-      </c>
+    <row r="68" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="65"/>
       <c r="B68" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>122</v>
+      </c>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
+    <row r="69" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A69" s="42"/>
       <c r="B69" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>1156</v>
+      </c>
+      <c r="C69" s="12"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
+    <row r="70" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="42"/>
       <c r="B70" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>1157</v>
+      </c>
+      <c r="C70" s="12"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>102</v>
+    <row r="71" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="201" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="67" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="67"/>
-      <c r="B76" s="3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-    </row>
-    <row r="77" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="67"/>
-      <c r="B77" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="44"/>
+    <row r="75" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="65" t="s">
+        <v>231</v>
+      </c>
       <c r="B78" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="2"/>
-    </row>
-    <row r="79" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="44"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="65"/>
       <c r="B79" s="3" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C79" s="12"/>
-      <c r="D79" s="2"/>
-    </row>
-    <row r="80" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" ht="201" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="6"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>211</v>
+      </c>
       <c r="B84" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="67"/>
-      <c r="B88" s="3" t="s">
+    </row>
+    <row r="91" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A91" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="11"/>
+    </row>
+    <row r="93" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="1"/>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="1"/>
+    </row>
+    <row r="101" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C101" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B104" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
-      <c r="B91" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
-        <v>502</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A93" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C93" s="11" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="288" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C96" s="11" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C97" s="11" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A100" s="16" t="s">
+      <c r="B105" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C100" s="11"/>
-    </row>
-    <row r="102" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="B106" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B108" s="1"/>
+        <v>283</v>
+      </c>
+      <c r="C106" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C110" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>435</v>
+        <v>378</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
-        <v>296</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A112" s="63" t="s">
+        <v>380</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A113" s="63"/>
       <c r="B113" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
-        <v>260</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="C113" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A114" s="63"/>
       <c r="B114" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
-        <v>261</v>
-      </c>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="63"/>
       <c r="B115" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C115" t="s">
-        <v>300</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="63"/>
+      <c r="B116" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="336" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C117" s="11" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="B119" s="28" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A122" s="65"/>
-      <c r="B122" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C122" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A123" s="65"/>
-      <c r="B123" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A124" s="65"/>
-      <c r="B124" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A125" s="65"/>
-      <c r="B125" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="336" x14ac:dyDescent="0.3">
-      <c r="A126" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C126" s="11" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A128" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A121:A125"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A75:A77"/>
-    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A78:A79"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C77" r:id="rId1" display="https://www.youtube.com/watch?v=gzrQvzYEvYc&amp;t=249s" xr:uid="{037A6B83-99E9-4A12-AA81-809B626C745F}"/>
-    <hyperlink ref="C96" r:id="rId2" xr:uid="{3D33C826-7135-4519-B140-F675D1123A86}"/>
-    <hyperlink ref="C97" r:id="rId3" xr:uid="{3824DA84-47CF-4D31-AA0E-04A22DAD8BCE}"/>
-    <hyperlink ref="C99" r:id="rId4" xr:uid="{66F746C5-1015-44FE-BFBA-28D184B276B8}"/>
+    <hyperlink ref="C68" r:id="rId1" display="https://www.youtube.com/watch?v=gzrQvzYEvYc&amp;t=249s" xr:uid="{037A6B83-99E9-4A12-AA81-809B626C745F}"/>
+    <hyperlink ref="C87" r:id="rId2" xr:uid="{3D33C826-7135-4519-B140-F675D1123A86}"/>
+    <hyperlink ref="C88" r:id="rId3" xr:uid="{3824DA84-47CF-4D31-AA0E-04A22DAD8BCE}"/>
+    <hyperlink ref="C90" r:id="rId4" xr:uid="{66F746C5-1015-44FE-BFBA-28D184B276B8}"/>
     <hyperlink ref="C8" r:id="rId5" xr:uid="{4A4AA6B2-6479-419C-A043-9A61CB3C148B}"/>
     <hyperlink ref="C2" r:id="rId6" display="https://mlbookcamp.com/article/crisp-dm" xr:uid="{366E00BF-8318-47E5-8DD6-FE47524E075A}"/>
-    <hyperlink ref="C126" r:id="rId7" xr:uid="{50359122-829B-4B46-A956-184AC67969EC}"/>
-    <hyperlink ref="C111" r:id="rId8" xr:uid="{E5974F08-1C76-43F2-8662-9BFAD160AD79}"/>
-    <hyperlink ref="C42" r:id="rId9" xr:uid="{F7D9DEE8-C3EF-40AC-B83C-C3F5C55EF822}"/>
-    <hyperlink ref="C102" r:id="rId10" xr:uid="{18BEAC28-0E2B-42CA-BDB0-170742EE9127}"/>
-    <hyperlink ref="C93" r:id="rId11" xr:uid="{91679E8C-53A8-4FFC-9692-717359315E93}"/>
+    <hyperlink ref="C117" r:id="rId7" xr:uid="{50359122-829B-4B46-A956-184AC67969EC}"/>
+    <hyperlink ref="C102" r:id="rId8" xr:uid="{E5974F08-1C76-43F2-8662-9BFAD160AD79}"/>
+    <hyperlink ref="C31" r:id="rId9" xr:uid="{F7D9DEE8-C3EF-40AC-B83C-C3F5C55EF822}"/>
+    <hyperlink ref="C93" r:id="rId10" xr:uid="{18BEAC28-0E2B-42CA-BDB0-170742EE9127}"/>
+    <hyperlink ref="C84" r:id="rId11" xr:uid="{91679E8C-53A8-4FFC-9692-717359315E93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -23610,31 +24430,31 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.35">
-      <c r="B2" s="38" t="s">
-        <v>721</v>
+      <c r="B2" s="36" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -23644,10 +24464,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112F4E25-B6EF-4FC2-AAC0-B362CEC80063}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23666,159 +24486,159 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>772</v>
+        <v>751</v>
       </c>
       <c r="B2" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>773</v>
+        <v>752</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>774</v>
+        <v>753</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1117</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1179</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>781</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>782</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>788</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>789</v>
+        <v>768</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>792</v>
+        <v>771</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>795</v>
+        <v>774</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>796</v>
+        <v>775</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>797</v>
+        <v>776</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>823</v>
+        <v>802</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -23832,216 +24652,216 @@
     </row>
     <row r="34" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="330" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>537</v>
+        <v>516</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>534</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="204.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>527</v>
+        <v>506</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>528</v>
+        <v>507</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>529</v>
+        <v>508</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="321" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="3" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="3" t="s">
-        <v>818</v>
+        <v>797</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>542</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>544</v>
+        <v>519</v>
+      </c>
+      <c r="B48" s="31" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>541</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>543</v>
+        <v>520</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>530</v>
+        <v>509</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>531</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>538</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="1" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -24049,86 +24869,132 @@
     <row r="61" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="3" t="s">
-        <v>816</v>
+        <v>795</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>565</v>
-      </c>
+        <v>796</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>566</v>
+        <v>544</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>568</v>
+        <v>545</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1118</v>
+        <v>546</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>571</v>
+        <v>548</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>573</v>
+        <v>550</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>554</v>
+      </c>
       <c r="B71" s="1" t="s">
-        <v>715</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B72" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1187</v>
       </c>
     </row>
   </sheetData>
@@ -24160,138 +25026,138 @@
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
-        <v>936</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>937</v>
+      <c r="A2" s="56" t="s">
+        <v>914</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>915</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="62" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>1140</v>
+      <c r="A3" s="60" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="4" customFormat="1" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="60" t="s">
-        <v>915</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>1137</v>
+      <c r="A4" s="58" t="s">
+        <v>893</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
-        <v>916</v>
+      <c r="A5" s="63" t="s">
+        <v>894</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
+      <c r="A6" s="63"/>
       <c r="B6" s="1" t="s">
-        <v>917</v>
+        <v>895</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="1" t="s">
-        <v>1141</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="1" t="s">
-        <v>1145</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="1" t="s">
-        <v>1146</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="1" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>903</v>
+        <v>881</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>904</v>
+        <v>882</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="4" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1138</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>1142</v>
+        <v>1115</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1143</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>905</v>
+        <v>883</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>1144</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>907</v>
+        <v>885</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>908</v>
+        <v>886</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="4" customFormat="1" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
-        <v>912</v>
+        <v>890</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
-        <v>913</v>
+        <v>891</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>914</v>
+        <v>892</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -24302,291 +25168,291 @@
     </row>
     <row r="27" spans="1:2" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>906</v>
+        <v>884</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="4" customFormat="1" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="4" customFormat="1" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="49" t="s">
-        <v>927</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>926</v>
+      <c r="A30" s="47" t="s">
+        <v>905</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>904</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="4" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="51" t="s">
-        <v>928</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>922</v>
+      <c r="A31" s="49" t="s">
+        <v>906</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>900</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="68" t="s">
-        <v>925</v>
-      </c>
-      <c r="B32" s="37" t="s">
-        <v>923</v>
+      <c r="A32" s="66" t="s">
+        <v>903</v>
+      </c>
+      <c r="B32" s="35" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="4" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="69"/>
-      <c r="B33" s="47" t="s">
-        <v>924</v>
+      <c r="A33" s="67"/>
+      <c r="B33" s="45" t="s">
+        <v>902</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="4" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
-        <v>929</v>
+        <v>907</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>930</v>
+        <v>908</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="4" customFormat="1" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49" t="s">
-        <v>931</v>
-      </c>
-      <c r="B35" s="52" t="s">
-        <v>932</v>
+      <c r="A35" s="47" t="s">
+        <v>909</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="4" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>933</v>
+        <v>911</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="4" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>934</v>
+        <v>912</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="4" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="49" t="s">
-        <v>758</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>938</v>
+      <c r="A38" s="47" t="s">
+        <v>737</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="4" customFormat="1" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="49" t="s">
-        <v>939</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>940</v>
+      <c r="A39" s="47" t="s">
+        <v>917</v>
+      </c>
+      <c r="B39" s="46" t="s">
+        <v>918</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>941</v>
+        <v>919</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>943</v>
+        <v>921</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="4" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>945</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>946</v>
+        <v>923</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>924</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>969</v>
+        <v>947</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>970</v>
+        <v>948</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>1002</v>
+        <v>979</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1001</v>
+        <v>978</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>1014</v>
+        <v>991</v>
       </c>
       <c r="B46" s="1"/>
     </row>
     <row r="47" spans="1:2" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>728</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>727</v>
+        <v>707</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>729</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>730</v>
+        <v>708</v>
+      </c>
+      <c r="B48" s="36" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.35">
-      <c r="B63" s="38" t="s">
-        <v>746</v>
+      <c r="B63" s="36" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>752</v>
-      </c>
-      <c r="B67" s="38" t="s">
-        <v>753</v>
+        <v>731</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.35">
-      <c r="B68" s="38" t="s">
-        <v>754</v>
+      <c r="B68" s="36" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.35">
-      <c r="B70" s="38" t="s">
-        <v>756</v>
+      <c r="B70" s="36" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="B71" s="43" t="s">
-        <v>757</v>
+      <c r="B71" s="41" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>758</v>
-      </c>
-      <c r="B72" s="38" t="s">
-        <v>759</v>
+        <v>737</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>738</v>
       </c>
     </row>
   </sheetData>
@@ -24614,225 +25480,225 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B1" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1121</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1120</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>876</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>877</v>
+        <v>855</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1122</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1123</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1125</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1124</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>1126</v>
+        <v>860</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>883</v>
+        <v>861</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>884</v>
+        <v>862</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>885</v>
+        <v>863</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>888</v>
+        <v>866</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>889</v>
+        <v>867</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>892</v>
+        <v>870</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>891</v>
+        <v>869</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1127</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>1128</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1129</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>1130</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>898</v>
+        <v>876</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>1131</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>1132</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1133</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>901</v>
+        <v>879</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>1135</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>1134</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>1136</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shesh\Desktop\sheshank_doc\ML\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E712798-3E3A-4E2A-B6E7-4E86A64050E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD44941-A193-4CC5-A15F-36FE41FD912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="3" activeTab="6" xr2:uid="{D7F2B556-C617-4DDF-8866-32B87C862FE3}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="1189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="1190">
   <si>
     <t>Topic</t>
   </si>
@@ -15209,14 +15209,6 @@
 A monotonic relationship in simple terms means that as one variable increases, the other variable either consistently increases or consistently decreases. It doesn't necessarily mean that the change is constant; it just means that there's a clear pattern of either both going up or both going down together.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. lets take an example where we have student,maths marks ,science marks. now we need to find correlation between maths marks and science marks
-2. we give a rank to each score  in individual column(1st for the highest score and last for the least score,If there are ties (equal values), assign the average rank to those tied values.)
-3. Calculate the differences between the ranks for each student: 
-d=Math Rank−Science Rank.
-4.now apply these values to the spearman formula you will get the correlation output.
-</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -18281,6 +18273,17 @@
 Use the formula for the Pearson correlation coefficient (r):
 cov(X,Y)/SD(x)*SD(Y)</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.simplilearn.com/tutorials/statistics-tutorial/spearmans-rank-correlation</t>
+  </si>
+  <si>
+    <t>1. let's take an example where we have columns X and Y. 
+2. we give a rank to each score  in an individual column(1st for the highest score and last for the lowest score,If there are ties (equal values), assign the average rank to those tied values.)
+3. Calculate the differences between the ranks : 
+d=X feature datapoint rank-Yfeature datapoint rank, after finding the difference square the difference.
+4. now apply these values to the Spearman formula you will get the correlation output.
+Formula=1-(6*summation di)/n(n**2-1)</t>
   </si>
 </sst>
 </file>
@@ -19571,37 +19574,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
   </sheetData>
@@ -19625,98 +19628,98 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="319.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
   </sheetData>
@@ -20416,7 +20419,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -20462,7 +20465,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -20496,7 +20499,7 @@
         <v>210</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
@@ -20654,7 +20657,7 @@
         <v>240</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -20690,7 +20693,7 @@
         <v>242</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -20730,10 +20733,10 @@
     </row>
     <row r="14" spans="1:3" ht="267" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1167</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -20742,7 +20745,7 @@
         <v>243</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -20752,10 +20755,10 @@
     </row>
     <row r="17" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1169</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -20889,7 +20892,7 @@
         <v>246</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -21107,7 +21110,7 @@
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -21380,7 +21383,7 @@
         <v>322</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1013</v>
@@ -21388,7 +21391,7 @@
     </row>
     <row r="6" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -21599,15 +21602,15 @@
     </row>
     <row r="12" spans="1:3" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="292.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -21620,18 +21623,18 @@
     </row>
     <row r="15" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1181</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -21723,7 +21726,7 @@
     </row>
     <row r="3" spans="1:3" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -22010,10 +22013,10 @@
     </row>
     <row r="23" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1153</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1154</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="354.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22079,7 +22082,7 @@
         <v>263</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -22119,7 +22122,7 @@
         <v>588</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -22333,7 +22336,7 @@
     </row>
     <row r="70" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -23608,7 +23611,7 @@
     <row r="27" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -23618,17 +23621,17 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -23715,20 +23718,20 @@
     </row>
     <row r="38" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>1162</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>1163</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>1164</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>1165</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -23972,7 +23975,7 @@
     <row r="67" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A67" s="65"/>
       <c r="B67" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -23990,7 +23993,7 @@
     <row r="69" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A69" s="42"/>
       <c r="B69" s="3" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="2"/>
@@ -23998,7 +24001,7 @@
     <row r="70" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A70" s="42"/>
       <c r="B70" s="3" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="2"/>
@@ -24466,8 +24469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112F4E25-B6EF-4FC2-AAC0-B362CEC80063}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24520,7 +24523,7 @@
     </row>
     <row r="7" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -24885,7 +24888,7 @@
     <row r="63" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
@@ -24896,7 +24899,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>545</v>
       </c>
@@ -24904,7 +24907,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>547</v>
       </c>
@@ -24912,15 +24915,18 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>548</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+        <v>1189</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>550</v>
       </c>
@@ -24928,7 +24934,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>552</v>
       </c>
@@ -24936,7 +24942,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>551</v>
       </c>
@@ -24944,7 +24950,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>554</v>
       </c>
@@ -24952,12 +24958,12 @@
         <v>555</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>202</v>
       </c>
@@ -24965,15 +24971,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>206</v>
       </c>
@@ -24981,7 +24987,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>209</v>
       </c>
@@ -24989,12 +24995,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
   </sheetData>
@@ -25035,10 +25041,10 @@
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B3" s="61" t="s">
         <v>1112</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="4" customFormat="1" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
@@ -25046,7 +25052,7 @@
         <v>893</v>
       </c>
       <c r="B4" s="59" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
@@ -25066,19 +25072,19 @@
     <row r="7" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
@@ -25099,15 +25105,15 @@
     </row>
     <row r="13" spans="1:2" s="4" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1115</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
@@ -25117,7 +25123,7 @@
     </row>
     <row r="16" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
@@ -25488,12 +25494,12 @@
     </row>
     <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -25532,17 +25538,17 @@
     </row>
     <row r="9" spans="1:2" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -25552,7 +25558,7 @@
     </row>
     <row r="13" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.35">
@@ -25560,7 +25566,7 @@
         <v>860</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -25622,12 +25628,12 @@
         <v>871</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -25635,7 +25641,7 @@
         <v>874</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -25645,7 +25651,7 @@
     </row>
     <row r="28" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -25660,12 +25666,12 @@
     </row>
     <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -25673,7 +25679,7 @@
         <v>878</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -25683,17 +25689,17 @@
     </row>
     <row r="35" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="288" x14ac:dyDescent="0.3">

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shesh\Desktop\sheshank_doc\ML\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD44941-A193-4CC5-A15F-36FE41FD912A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDF9E12-D92A-426D-BE80-A88F4EB436A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="3" activeTab="6" xr2:uid="{D7F2B556-C617-4DDF-8866-32B87C862FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="8" activeTab="17" xr2:uid="{D7F2B556-C617-4DDF-8866-32B87C862FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="1196">
   <si>
     <t>Topic</t>
   </si>
@@ -11541,9 +11541,6 @@
     <t>"Multithreading in Python is like having multiple workers in your program who can work on different tasks simultaneously. Just as you can multitask in your daily life, a Python program can be designed to do multiple things at the same time. This is especially useful when you have tasks that can be done independently, like downloading files, processing data, or handling user interactions. Instead of doing one task at a time, multithreading allows you to split the work and make your program more efficient."</t>
   </si>
   <si>
-    <t>multiprocessing vs multi threading</t>
-  </si>
-  <si>
     <t>"Imagine you're in a restaurant kitchen, and you have multiple orders to prepare. If you use multiprocessing, it's like having separate chefs in their own kitchens, each handling a different order. They don't get in each other's way and work on their tasks independently. This is good when you have complex dishes to prepare, and each chef needs their own space and ingredients."
 "On the other hand, with multithreading, you have multiple workers sharing the same kitchen and ingredients. They have to coordinate and make sure they don't collide while cooking different dishes. This is useful when you have simpler tasks, like serving customers or cleaning up, where you want to keep things efficient and responsive even though you're sharing resources."
 In essence, multiprocessing is about parallel execution with separate resources, while multithreading is about concurrent execution with shared resources. The choice between them depends on the nature of your tasks and the efficiency you want to achieve.</t>
@@ -11794,10 +11791,6 @@
       </rPr>
       <t xml:space="preserve"> function in Pandas is used to group rows of a DataFrame based on the values in one or more columns. Its primary purpose is to enable the application of aggregate functions and operations on these groups of data.</t>
     </r>
-  </si>
-  <si>
-    <t>before 3.3 vesion when you want to consider a directory as a package then you need to have init.py file in that directory. if it is not present it wouldn't not recognize the dir as a package. but after 3.3 even if init.py file is not there in the dir we can use the directory as a package.
-but suppose if the file is still present then if you write anything in the file, if you are importing any module from that folder then this file will be automatically executed.</t>
   </si>
   <si>
     <t>what is __name__="__main__"
@@ -18284,6 +18277,134 @@
 d=X feature datapoint rank-Yfeature datapoint rank, after finding the difference square the difference.
 4. now apply these values to the Spearman formula you will get the correlation output.
 Formula=1-(6*summation di)/n(n**2-1)</t>
+  </si>
+  <si>
+    <t>Pickling is converting a Python object (list, dict, function, etc.) to a byte stream(0s and 1s), and unpickling is converting the byte stream back to a python object. It is used to transfer and store various Python objects. We can use pickle or dill Python packages for this.</t>
+  </si>
+  <si>
+    <t>Pickling</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Which is faster, Python list or Numpy arrays, and why?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ans. NumPy arrays are faster than Python lists for numerical operations.
+NumPy is an open-source library for working with arrays in Python, and it provides a number of functions for performing operations on arrays efficiently.
+They are faster than Python lists because they are implemented in C, while Python lists are implemented in Python. This means that operations on NumPy arrays are implemented in a compiled language, which makes them faster than operations on Python lists, which are implemented in an interpreted language.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>difference between split and join?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The split function is used to create a list from strings based on some delimiter, for e.g., space.
+The join() method is a built-in function of Python’s str class that concatenates a list of strings into a single string. It is called on a delimiter string and invoked with a list of strings to be joined.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is the difference between return and yield keywords?
+Ans. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Return is used to exit a function and return a value to the caller. When a return statement is encountered, the function terminates immediately, and the value of the expression following the return statement is returned to the caller.
+Yield, on the other hand, is used to define a generator function. A generator function is a special kind of function that produces a sequence of values one at a time instead of returning a single value. When a yield statement is encountered, the generator function produces a value and suspends its execution, saving its state for later.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>What is the use of the ‘assert’ keyword in Python?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ans. In Python, the assert statement is used to test a condition. If the condition is True, then the program continues to execute. If the condition is False, then the program raises an AssertionError exception.
+It’s important to note that the assert statement is used for debugging purposes and is not intended to be used as a way to handle runtime errors. In production code, you should use try and except blocks to handle exceptions that might be raised at runtime.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Is removing the first item or last item takes the same time in the Python list?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Removing the last item from a list in Python using pop() takes constant time on average, O(1), because it involves simply updating the size of the list and deallocating the memory for the last element.
+On the other hand, removing the first item from a list using pop(0) takes linear time, O(n), where n is the length of the list. This is because when you remove an element from the beginning of the list, all the remaining elements need to be shifted by one position to fill the gap.
+If you need to frequently remove items from the beginning of a collection, and the order of elements is not important, consider using a deque from the collections module. Deques are designed to efficiently support popping elements from both ends in constant time.</t>
+    </r>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -18717,7 +18838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -18852,6 +18973,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -18870,8 +18995,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -19574,37 +19698,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -19628,98 +19752,98 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="319.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
   </sheetData>
@@ -19775,16 +19899,16 @@
     </row>
     <row r="5" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -19912,7 +20036,7 @@
         <v>142</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>143</v>
@@ -19923,7 +20047,7 @@
         <v>816</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C26" s="11"/>
     </row>
@@ -19932,7 +20056,7 @@
         <v>144</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="271.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -20016,7 +20140,7 @@
         <v>145</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
@@ -20038,7 +20162,7 @@
         <v>146</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
@@ -20102,15 +20226,15 @@
         <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
@@ -20118,7 +20242,7 @@
         <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -20126,7 +20250,7 @@
         <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -20139,17 +20263,17 @@
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -20419,7 +20543,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -20465,7 +20589,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -20499,7 +20623,7 @@
         <v>210</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
   </sheetData>
@@ -20530,7 +20654,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="65" t="s">
         <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -20538,7 +20662,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="63"/>
+      <c r="A3" s="65"/>
       <c r="B3" s="1" t="s">
         <v>363</v>
       </c>
@@ -20657,7 +20781,7 @@
         <v>240</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -20693,7 +20817,7 @@
         <v>242</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -20733,10 +20857,10 @@
     </row>
     <row r="14" spans="1:3" ht="267" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -20745,7 +20869,7 @@
         <v>243</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -20755,10 +20879,10 @@
     </row>
     <row r="17" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -20856,7 +20980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425C52BC-ABC6-48CA-AB80-9C3D4AAC6A35}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -20879,7 +21003,7 @@
         <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -20892,7 +21016,7 @@
         <v>246</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -20908,7 +21032,7 @@
         <v>289</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
@@ -20924,7 +21048,7 @@
         <v>843</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="345" x14ac:dyDescent="0.35">
@@ -20932,7 +21056,7 @@
         <v>823</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
@@ -20954,25 +21078,25 @@
     <row r="12" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -20986,7 +21110,7 @@
     <row r="17" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -20998,7 +21122,7 @@
     <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -21097,20 +21221,20 @@
         <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -21126,32 +21250,32 @@
         <v>322</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -21174,22 +21298,22 @@
     </row>
     <row r="15" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="144" x14ac:dyDescent="0.3">
@@ -21232,96 +21356,96 @@
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
   </sheetData>
@@ -21365,7 +21489,7 @@
     </row>
     <row r="3" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C3" s="11"/>
     </row>
@@ -21383,15 +21507,15 @@
         <v>322</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -21401,12 +21525,12 @@
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.3">
@@ -21435,7 +21559,7 @@
     </row>
     <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
   </sheetData>
@@ -21529,10 +21653,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="62" t="s">
         <v>498</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="63" t="s">
         <v>499</v>
       </c>
     </row>
@@ -21597,20 +21721,20 @@
         <v>339</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="292.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -21623,18 +21747,18 @@
     </row>
     <row r="15" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -21672,17 +21796,17 @@
     </row>
     <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
   </sheetData>
@@ -21721,12 +21845,12 @@
         <v>169</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -21747,7 +21871,7 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
@@ -21768,17 +21892,17 @@
     </row>
     <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -21871,13 +21995,13 @@
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -21897,7 +22021,7 @@
         <v>271</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="360" x14ac:dyDescent="0.3">
@@ -21905,7 +22029,7 @@
         <v>272</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
@@ -21913,7 +22037,7 @@
         <v>274</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
@@ -21921,7 +22045,7 @@
         <v>566</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
@@ -21929,19 +22053,19 @@
         <v>567</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -21987,12 +22111,12 @@
         <v>577</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="159" thickBot="1" x14ac:dyDescent="0.35">
@@ -22000,7 +22124,7 @@
         <v>568</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
@@ -22008,15 +22132,15 @@
         <v>578</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="354.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22024,15 +22148,15 @@
         <v>579</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -22063,10 +22187,10 @@
     </row>
     <row r="30" spans="1:2" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -22074,7 +22198,7 @@
         <v>584</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -22082,23 +22206,23 @@
         <v>263</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.35">
@@ -22106,7 +22230,7 @@
         <v>585</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -22122,7 +22246,7 @@
         <v>588</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -22161,7 +22285,7 @@
         <v>596</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -22177,7 +22301,7 @@
         <v>601</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="90" x14ac:dyDescent="0.35">
@@ -22198,10 +22322,10 @@
     </row>
     <row r="48" spans="1:2" ht="405" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -22209,7 +22333,7 @@
         <v>598</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -22217,7 +22341,7 @@
         <v>599</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
@@ -22233,7 +22357,7 @@
     </row>
     <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -22241,7 +22365,7 @@
         <v>606</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
@@ -22251,7 +22375,7 @@
     </row>
     <row r="56" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -22302,7 +22426,7 @@
         <v>608</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -22315,10 +22439,10 @@
     </row>
     <row r="67" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -22331,12 +22455,12 @@
     </row>
     <row r="69" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -22349,10 +22473,10 @@
     </row>
     <row r="72" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.35">
@@ -22360,7 +22484,7 @@
         <v>696</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.3">
@@ -22375,10 +22499,10 @@
     </row>
     <row r="76" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -22388,7 +22512,7 @@
     </row>
     <row r="78" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
   </sheetData>
@@ -22427,24 +22551,24 @@
     </row>
     <row r="4" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="64" t="s">
         <v>524</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A7" s="62"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
@@ -22508,7 +22632,7 @@
     <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
@@ -22554,7 +22678,7 @@
         <v>561</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="141" customHeight="1" x14ac:dyDescent="0.3">
@@ -22578,7 +22702,7 @@
         <v>636</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="295.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -22591,19 +22715,19 @@
     </row>
     <row r="26" spans="1:4" ht="274.8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="210" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
@@ -22617,15 +22741,15 @@
     <row r="30" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="1" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -22633,7 +22757,7 @@
         <v>611</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -22662,7 +22786,7 @@
         <v>495</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -22680,7 +22804,7 @@
         <v>619</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
@@ -22709,7 +22833,7 @@
         <v>621</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -22717,7 +22841,7 @@
         <v>622</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -22757,7 +22881,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
@@ -22781,7 +22905,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
@@ -22794,10 +22918,10 @@
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -22805,7 +22929,7 @@
         <v>628</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
@@ -22827,15 +22951,15 @@
     <row r="56" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="360" x14ac:dyDescent="0.3">
@@ -22843,7 +22967,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -22942,7 +23066,7 @@
         <v>74</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -22952,7 +23076,7 @@
         <v>77</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -22982,7 +23106,7 @@
         <v>82</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -23057,7 +23181,7 @@
         <v>212</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -23109,15 +23233,15 @@
         <v>649</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="14" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -23481,7 +23605,7 @@
       <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="65" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -23489,7 +23613,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A12" s="64"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="1" t="s">
         <v>426</v>
       </c>
@@ -23497,21 +23621,21 @@
     <row r="13" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
       <c r="B14" s="1" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="29" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
@@ -23555,7 +23679,7 @@
     <row r="21" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -23573,7 +23697,7 @@
     <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -23611,7 +23735,7 @@
     <row r="27" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -23621,17 +23745,17 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -23718,20 +23842,20 @@
     </row>
     <row r="38" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -23741,13 +23865,13 @@
         <v>55</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="67" t="s">
         <v>66</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -23757,7 +23881,7 @@
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
+      <c r="A42" s="67"/>
       <c r="B42" s="3" t="s">
         <v>68</v>
       </c>
@@ -23765,7 +23889,7 @@
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
+      <c r="A43" s="67"/>
       <c r="B43" s="3" t="s">
         <v>69</v>
       </c>
@@ -23773,7 +23897,7 @@
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
+      <c r="A44" s="67"/>
       <c r="B44" s="3" t="s">
         <v>70</v>
       </c>
@@ -23795,7 +23919,7 @@
     <row r="47" spans="1:4" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -23867,7 +23991,7 @@
       <c r="D54" s="2"/>
     </row>
     <row r="56" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="67" t="s">
         <v>84</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -23879,7 +24003,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
+      <c r="A57" s="67"/>
       <c r="B57" s="3" t="s">
         <v>839</v>
       </c>
@@ -23889,7 +24013,7 @@
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="65"/>
+      <c r="A58" s="67"/>
       <c r="B58" s="3" t="s">
         <v>86</v>
       </c>
@@ -23963,7 +24087,7 @@
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="67" t="s">
         <v>119</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -23973,15 +24097,15 @@
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
+      <c r="A67" s="67"/>
       <c r="B67" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
+      <c r="A68" s="67"/>
       <c r="B68" s="3" t="s">
         <v>121</v>
       </c>
@@ -23993,7 +24117,7 @@
     <row r="69" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A69" s="42"/>
       <c r="B69" s="3" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="2"/>
@@ -24001,7 +24125,7 @@
     <row r="70" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A70" s="42"/>
       <c r="B70" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="2"/>
@@ -24069,7 +24193,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="65" t="s">
+      <c r="A78" s="67" t="s">
         <v>231</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -24077,7 +24201,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="65"/>
+      <c r="A79" s="67"/>
       <c r="B79" s="3" t="s">
         <v>233</v>
       </c>
@@ -24325,7 +24449,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="63" t="s">
+      <c r="A112" s="65" t="s">
         <v>380</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -24333,7 +24457,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A113" s="63"/>
+      <c r="A113" s="65"/>
       <c r="B113" s="1" t="s">
         <v>383</v>
       </c>
@@ -24342,19 +24466,19 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A114" s="63"/>
+      <c r="A114" s="65"/>
       <c r="B114" s="1" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="63"/>
+      <c r="A115" s="65"/>
       <c r="B115" s="1" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A116" s="63"/>
+      <c r="A116" s="65"/>
       <c r="B116" s="1" t="s">
         <v>384</v>
       </c>
@@ -24469,7 +24593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112F4E25-B6EF-4FC2-AAC0-B362CEC80063}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+    <sheetView topLeftCell="A65" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -24513,7 +24637,7 @@
     </row>
     <row r="5" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -24523,7 +24647,7 @@
     </row>
     <row r="7" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -24820,7 +24944,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -24888,7 +25012,7 @@
     <row r="63" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
@@ -24912,7 +25036,7 @@
         <v>547</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -24920,10 +25044,10 @@
         <v>548</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C67" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
@@ -24971,12 +25095,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>203</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -25000,7 +25124,7 @@
         <v>210</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
     </row>
   </sheetData>
@@ -25011,10 +25135,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4319920B-AB1B-440B-8B17-63E964E70FBF}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25031,440 +25155,468 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:2" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
         <v>914</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B3" s="57" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="4" customFormat="1" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="60" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="4" customFormat="1" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
         <v>893</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="B5" s="59" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A6" s="65" t="s">
         <v>894</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:2" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="1" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="1" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="1" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="44"/>
+      <c r="B11" s="1" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="4" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>1114</v>
-      </c>
+    <row r="14" spans="1:2" s="4" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1112</v>
+      </c>
       <c r="B15" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>883</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="4" customFormat="1" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+    <row r="21" spans="1:2" s="4" customFormat="1" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="14" t="s">
+    <row r="22" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+    <row r="23" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
         <v>889</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="1:2" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B27" s="70" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="70" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+    <row r="30" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="4" customFormat="1" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
+    <row r="31" spans="1:2" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="4" customFormat="1" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="4" customFormat="1" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="47" t="s">
+    <row r="33" spans="1:2" s="4" customFormat="1" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="47" t="s">
         <v>905</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B33" s="46" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="4" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="49" t="s">
+    <row r="34" spans="1:2" s="4" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="47"/>
+      <c r="B34" s="48" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="4" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="49" t="s">
         <v>906</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B35" s="48" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="66" t="s">
+    <row r="36" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="68" t="s">
         <v>903</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B36" s="35" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="4" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="67"/>
-      <c r="B33" s="45" t="s">
+    <row r="37" spans="1:2" s="4" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="69"/>
+      <c r="B37" s="45" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="4" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+    <row r="38" spans="1:2" s="4" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
         <v>907</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="4" customFormat="1" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47" t="s">
+    <row r="39" spans="1:2" s="4" customFormat="1" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="47" t="s">
         <v>909</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B39" s="50" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="4" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
+    <row r="40" spans="1:2" s="4" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="4" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+    <row r="41" spans="1:2" s="4" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>913</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="4" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="47" t="s">
+    <row r="42" spans="1:2" s="4" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="47" t="s">
         <v>737</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B42" s="48" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="4" customFormat="1" ht="159" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="47" t="s">
+    <row r="43" spans="1:2" s="4" customFormat="1" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="47">
+        <v>4</v>
+      </c>
+      <c r="B43" s="46" t="s">
         <v>917</v>
       </c>
-      <c r="B39" s="46" t="s">
+    </row>
+    <row r="44" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="45" spans="1:2" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
         <v>920</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="B45" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" s="4" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" s="4" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="B46" s="51" t="s">
         <v>923</v>
       </c>
-      <c r="B42" s="51" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>991</v>
-      </c>
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="1:2" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="4" t="s">
+    </row>
+    <row r="47" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="1:2" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="B47" s="36" t="s">
+      <c r="B51" s="36" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>708</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B52" s="36" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="1" t="s">
+    <row r="53" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="B50" s="1" t="s">
+    <row r="54" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B54" s="1" t="s">
         <v>711</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B53" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B54" s="1" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>718</v>
-      </c>
+        <v>713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>718</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="1" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B60" s="1" t="s">
+    <row r="64" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B64" s="1" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="B61" s="1" t="s">
+    <row r="65" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="B65" s="1" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="B62" s="1" t="s">
+    <row r="66" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.35">
-      <c r="B63" s="36" t="s">
+    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.35">
+      <c r="B67" s="36" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>727</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="1" t="s">
+    <row r="69" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="70" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>729</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>731</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B71" s="36" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.35">
-      <c r="B68" s="36" t="s">
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.35">
+      <c r="B72" s="36" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B69" s="1" t="s">
+    <row r="73" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B73" s="1" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30" x14ac:dyDescent="0.35">
-      <c r="B70" s="36" t="s">
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.35">
+      <c r="B74" s="36" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="30" x14ac:dyDescent="0.3">
-      <c r="B71" s="41" t="s">
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+      <c r="B75" s="41" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="75" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>737</v>
       </c>
-      <c r="B72" s="36" t="s">
+      <c r="B76" s="36" t="s">
         <v>738</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25494,12 +25646,12 @@
     </row>
     <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -25538,17 +25690,17 @@
     </row>
     <row r="9" spans="1:2" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -25558,7 +25710,7 @@
     </row>
     <row r="13" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.35">
@@ -25566,7 +25718,7 @@
         <v>860</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -25628,12 +25780,12 @@
         <v>871</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -25641,7 +25793,7 @@
         <v>874</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -25651,7 +25803,7 @@
     </row>
     <row r="28" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -25666,12 +25818,12 @@
     </row>
     <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -25679,7 +25831,7 @@
         <v>878</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -25689,17 +25841,17 @@
     </row>
     <row r="35" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="288" x14ac:dyDescent="0.3">

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shesh\Desktop\sheshank_doc\ML\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CDF9E12-D92A-426D-BE80-A88F4EB436A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198DB350-EC84-4E41-873A-F2694AD914EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="8" activeTab="17" xr2:uid="{D7F2B556-C617-4DDF-8866-32B87C862FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="3" activeTab="11" xr2:uid="{D7F2B556-C617-4DDF-8866-32B87C862FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -42,21 +42,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="1196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1208">
   <si>
     <t>Topic</t>
   </si>
@@ -375,58 +366,7 @@
     <t>Plots that help find outliers</t>
   </si>
   <si>
-    <t xml:space="preserve">How to detect Outliers?
-1. using standard deviation 
-When the data, or certain features in the dataset, follow a normal distribution, you can use the standard deviation of the data, or the equivalent z-score to detect outliers.
-In statistics, standard deviation measures the spread of data around the mean, and in essence, it captures how far away from the mean the data points are.
-For data that is normally distributed, around 68.2% of the data will lie within one standard deviation from the mean. Close to 95.4% and 99.7% of the data lie within two and three standard deviations from the mean, respectively.
-upper limit=mean+3*std
-lower limit=mean-3*std
-2. Z-score:
-For example, a z-score of 2.5 indicates that the data point is 2.5 standard deviations away from the mean. Usually z-score =3 is considered a cut-off value to set the limit. Therefore, any z-score greater than +3 or less than -3 is considered an outlier which is pretty much similar to the standard deviation method.
-Z=x-x`/s
-where s is std,x` is mean
-when to use z-score as an outlier detection technique?
-when the data is normally distributed as Z-score assumes data to be normally distributed
-3. IQR:
-We can use the IQR method of identifying outliers to set up a “fence” outside of Q1 and Q3. Any values that fall outside of this fence are considered outliers. To build this fence we take 1.5 times the IQR and then subtract this value from Q1 and add this value to Q3.
-Inner fence = [Q1-1.5*IQR, Q3+1.5*IQR]
-Outer fence = [Q1–3*IQR, Q3+3*IQR]
-Values less than the inner fence and values more than the outer fence are considered outliers.
-when to use IQR:
-If the data is not normally distributed, you can use the interquartile range or percentage methods to detect outliers.
-</t>
-  </si>
-  <si>
     <t>Analyse outliers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-4. Isolation Forest:
-Isolation Forest is a tree-based algorithm that tries to find out outliers based on the concept of decision boundaries(just like we have for decision trees). The idea over here is to keep splitting the data at random thresholds and features till every point gets isolated(it’s like overfitting a decision tree on a dataset). Once the isolation is achieved we chunk out points that got isolated pretty early during this process. And we mark these points as potential outliers. If you see this intuitively, the farther a point is from the majority, the easier it gets to isolate, whereas, isolating the points that are part of a group would require more cuts to isolate every point.
-Isolation forest is one of the efficient ways to detect outliers,it works well on the high dimensional dataset.
-It works well because it doesn't care what type of data you are feeding to it like numerical or categorical, high dimensional or low dimensional.
-The model builds a random forest in which each each decision tree is built randomly.
-At each node it picks a feature randomly and a random threshold value to split the dataset into two.
-As the dataset gradually gets chopped off, each observation gets isolation from others.
-Anomalies are far from the other so they get to be isolated in less steps than the other observations.
-5. DBSCAN
-This technique is based on the DBSCAN clustering method. DBSCAN is a non-parametric, 
-density-based outlier detection method in a one or multi-dimensional feature space.
-In the DBSCAN clustering technique, all data points are defined either as Core Points, Border Points, or Noise Points.
-Core Points are data points that have at least MinPts neighboring data points within a distance ℇ.
-Border Points are neighbors of a Core Point within the distance ℇ but with less than MinPts neighbors within the distance ℇ.
-All other data points are Noise Points, also identified as outliers.
-It is also used as a density-based anomaly detection method with either single or multi-dimensional data. Other clustering algorithms such as k-means and hierarchal clustering can also be used to detect outliers.
-6. One class SVM:
-One class SVM is an unsupervised ML technique in which we only give the values of one class and try to draw a hypersphere around that class values and differentiate the values outside it as outliers.
-it is also called as novelty detection because we will not give the other class examples while training.
-In normal SVM we try to find a line where the perpendicular distance between the closest points of two distinct classes is maximum.
-BUt in one class SVM we try to find a line that is separating the normal points from the origin, here the origin is treated as the other class.
-The points that are on other side of the plane are treated as outliers.
-7. Density-Based Anomaly Detection 
-Density-based anomaly detection is based on the k-nearest neighbors algorithm.
-Assumption: Normal data points occur around a dense neighborhood and abnormalities are far away. </t>
   </si>
   <si>
     <t>How can outlier values be treated?
@@ -5352,45 +5292,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>What is multicollinearity, and how do you treat it?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Multicollinearity means independent variables are highly correlated to each other. 
-In regression analysis, it's an important assumption that the regression model should not be faced with a problem of multicollinearity.
-1.It makes it hard to interpret of model 
-2.creates an overfitting problem.
-3.It would be hard for you to choose the list of significant variables for the model if the model gives you different results every time.
-If two explanatory variables are highly correlated, it's hard to tell, what is the effect of the individual effects on  the dependent variable
-and the model results fluctuate significantly.
-Let's say Y is regressed against X1 and X2 and where X1 and X2 are highly correlated. 
-Then the effect of X1 on Y is hard to distinguish from the effect of X2 on Y because any increase in X1 tends to be associated with an increase in X2.
-Another way to look at the multicollinearity problem is: Individual t-test P values can be misleading. 
-It means a P-value can be high, which means the variable is not important, even though the variable is important.
-we can check multicollinearity using correlation matrix and calculating VIF?
-Depending on the situation, it may not be a problem for your model if only slight or moderate collinearity issue occurs. 
-However, it is strongly advised to solve the issue if severe collinearity issue exists
-(e.g. correlation &gt;0.8 between 2 variables or Variance inflation factor(VIF) &gt;20 )
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Correcting Multicollinearity:</t>
     </r>
     <r>
@@ -5479,16 +5380,6 @@
 So for example, If you have three classes named X, Y, and Z, you will have one ROC for X classified against Y and Z, another ROC for Y classified against X and Z, and the third one for Z classified against Y and X.</t>
   </si>
   <si>
-    <t xml:space="preserve">outliers are the data points that are very distinct from the other data points of that particular feature in the dataset.
-For a model of generalize well on testing data because the impact of outliers changes the value of mean and std. because of which the value of coefficients of the various models will be varied and this may result in biased outputs. we cannot remove outliers easily as it needs domain expertise.
-anomaly in the dataset that may be caused by a range of errors in capturing, processing or manipulating data. 
-Why outlier analysis?
-Most data mining methods discard outliers noise or exceptions, however, in some applications such as fraud detection, 
-the rare events can be more interesting than the more regularly occurring ones and 
-hence, the outlier analysis becomes important in such cases.
-</t>
-  </si>
-  <si>
     <t>Types of outliers?
 The three main types of outliers are:
 Point outliers
@@ -7382,21 +7273,6 @@
 A good model will have an ROC curve that leans towards the upper-left corner, indicating that it can achieve a high true positive rate while keeping the false positive rate relatively low across various threshold levels. The area under the ROC curve (AUC-ROC) is a summary measure of the curve's overall performance. A higher AUC-ROC value indicates better model performance.</t>
   </si>
   <si>
-    <t>steps for visualizing the ROC-AUC curve:
-1. After performing prediction on the test data we need to evaluate it, since the predictions are prob scores we need to decide an optimal threshold that classifies the samples better.
-2. Initially we will consider various thresholds between 0 and 1 let's say [0,0.2,0.4,0.6,0.8].
-3. we consider each threshold value let's say 0.2 and assign 1 to the samples that are having prob score more than 0.2 and 0 to the samples that are having prob less than 0.2  and then calculate TPR AND FPR, similarly for each threshold we will calculate the TPR AND FPR and we will get different TPR AND FPR values for each threshold.
-4. Then we plot all the TPR AND FPR w.r.to each threshold.
-5. Now we need to finalize the threshold value depending on our use case.
-6. suppose the business people say that we only need to consider TPR and it shouldn't have FPR then we will consider the threshold where FPR is very low.
-7. THe curve should be as high as possible.
-8. The ROC must be higher than 0.5 or else it means that the model is not performing well.
-9. The area under ROC is known as AUC.AUC ranges in value from 0 to 1. A model whose predictions are 100% wrong has an AUC of 0.0; one whose predictions are 100% correct has an AUC of 1.0.
-How to use the AUC ROC curve for the multi-class model?
-In a multi-class model, we can plot the N number of AUC ROC Curves for N number classes using the One vs ALL methodology. 
-So for example, If you have three classes named X, Y, and Z, you will have one ROC for X classified against Y and Z, another ROC for Y classified against X and Z, and the third one for Z classified against Y and X.</t>
-  </si>
-  <si>
     <t>when to use Each technique</t>
   </si>
   <si>
@@ -7420,9 +7296,6 @@
   </si>
   <si>
     <t xml:space="preserve">Treating Outliers </t>
-  </si>
-  <si>
-    <t>Dimensionality reduction is a technique used in data analysis and machine learning to reduce the number of features (dimensions) in a dataset while preserving or capturing as much relevant information as possible. In other words, it's about simplifying the data representation by projecting it into a lower-dimensional space.</t>
   </si>
   <si>
     <t>why dimensionality reduction is useful</t>
@@ -10940,37 +10813,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Difference between Map and Apply:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The map method is primarily used for element-wise operations on Series. It is not typically used with DataFrames.
-It applies a function to each element in the Series, element by element.
-It is useful when you want to apply a function to each element of a single Series and do not need to access other columns or rows in the DataFrame.
-The apply method is used for applying a function to rows or columns of a data frame, not just individual elements. It is a more versatile method.
-You can use it to apply a function to either rows or columns (specified by the axis parameter).
-It is useful for more complex operations that require access to multiple elements in a row or column.
-The result of the applied operation can be a Series or data frame, depending on the applied function.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">apply map:
 </t>
     </r>
@@ -11377,13 +11219,6 @@
   <si>
     <t>What is pickling and unpickling?
 Pickle module accepts any Python object and converts it into a string representation and dumps it into a file by using dump function, this process is called pickling. While the process of retrieving original Python objects from the stored string representation is called unpickling.</t>
-  </si>
-  <si>
-    <t>Iterators:
-Python objects that iterate through iterable objects are called Iterators. It is used to iterate over objects by returning one value at a time. Iterators are created by using the iter() function. The function next() is used to get the subsequent value from the iterator.
-Generators:
-Definition: A generator is a special type of iterator that is defined using a function with one or more yield statements. When the function is called, it returns a generator object. Execution of the function is paused when a yield statement is encountered, and the value is returned to the caller. The function's state is saved, allowing it to continue from where it left off when the next value is requested.
-Use Case: Generators are used for simplifying the creation of iterators and for implementing iterators in a more concise and readable way. They are often used for generating sequences of data lazily.</t>
   </si>
   <si>
     <t>What is the join method in python?
@@ -11532,10 +11367,6 @@
   </si>
   <si>
     <t>shallow copy vs deep copy</t>
-  </si>
-  <si>
-    <t>when you use shallow copy changes made to the elements don't effect the original but when you change the values of the nested elements then it will affect the original, changes made in the copied list will make changes in the original list.
-A deep copy, on the other hand, creates a completely independent duplicate of the original data structure, including all nested objects. Changes made to the nested objects within the original structure will not affect the deep copy, and vice versa.</t>
   </si>
   <si>
     <t>"Multithreading in Python is like having multiple workers in your program who can work on different tasks simultaneously. Just as you can multitask in your daily life, a Python program can be designed to do multiple things at the same time. This is especially useful when you have tasks that can be done independently, like downloading files, processing data, or handling user interactions. Instead of doing one task at a time, multithreading allows you to split the work and make your program more efficient."</t>
@@ -12366,95 +12197,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Question 2: What are the consequences of multicollinearity in regression analysis?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Answer: The consequences of multicollinearity include:
-Unreliable parameter estimates.
-High standard errors, making it difficult to identify significant predictors.
-Difficulty in interpreting the individual impact of correlated variables.
-Overemphasis on one variable when it may not be the most important.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Question 3: How can you detect multicollinearity in a regression model?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Answer: Multicollinearity can be detected using various methods, including:
-Correlation matrix: Examining correlation coefficients between independent variables.
-Variance Inflation Factor (VIF): Calculating VIF values for each variable, where a VIF &gt; 1 indicates multicollinearity.
-Condition indices: Analyzing condition indices, where values above 30 may indicate multicollinearity.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>how do you interpret a VIF value of 2 for an independent variable?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Answer: A VIF of 2 for an independent variable suggests that the variance of the coefficient estimate for that variable is inflated by a factor of 2 due to multicollinearity. Generally, a VIF value greater than 1 indicates some level of multicollinearity, and a VIF of 2 is moderate multicollinearity.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">VIF </t>
-  </si>
-  <si>
-    <t>Calculation: The VIF for each predictor variable is calculated by fitting a linear regression model where that variable is treated as the dependent variable, and the other predictor variables are treated as independent variables. The VIF is computed as the ratio of the variance of the estimated coefficients in this regression model to the variance of the coefficients when there is no multicollinearity. Mathematically, for a predictor variable X, the VIF is calculated as:
-VIF(X) = 1 / (1 - R²)
-where R² is the coefficient of determination of the regression model.</t>
   </si>
   <si>
     <r>
@@ -13587,90 +13330,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Linearity:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">we can make use of scatter plots and residual plots to check for linearity
-If we are using a scatter plot then we need to plot each feature against the target variable and check if the data points are split and form a straight line, without any clear pattern, then the dataset is linear.
-If the data points within a feature are not in a straight line or if they are in the form of a curve, then we need to transform the data using various transformation techniques such as log transform, square transform, etc..
-If we are using residual plots then we plot residuals on the y-axis and predicted values on the x-axis.
-The points must be scattered randomly around the horizontal axis if there is a
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Homoscedasticity:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-A random scatter of residuals around the horizontal axis suggests constant variance. If the spread of residuals is relatively consistent as the predicted values increase, homoscedasticity is likely satisfied. Ensure a consistent spread of points; avoid patterns like a funnel shape.
-Homoscedasticity is violated if the spread does not remain consistent across the range of fitted values.
-If the spread of residuals systematically changes with different levels of predictors, homoscedasticity is not met.
-what happens if the model doesn't follow homoscedasticity?
-When a linear regression model violates the assumption of homoscedasticity (constant variance of residuals), it can lead to inefficient parameter estimates and biased standard errors.
-Apply a transformation to the dependent variable, such as taking the logarithm.
-Implement weighted least squares regression, where each observation is assigned a weight based on the inverse of its variance.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Independence of Residuals(Auto Correlations):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Plot the residuals against the fitted (predicted) values.
-Look for a random scatter of points with no discernible pattern. If there is a pattern, it may suggest a violation of independence.
-Include lagged values of the residuals as additional predictors in the model if the model suffers with autocorrelation. Assign weights to observations based on the degree of autocorrelation.
-If there is Auto correlation within the data and the dataset belong to time series then make use of time series models like ARIMA.
- </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Normality or residuals:
 </t>
     </r>
@@ -14079,17 +13738,6 @@
     </r>
   </si>
   <si>
-    <t>Why is Bias Variance Tradeoff?
-Variance is one of the two sources of error in a predictive model, the other being bias. 
-If our model is too simple and has very few parameters then it may have high bias and low variance. 
-On the other hand if our model has large number of parameters then it’s going to have high variance and low bias. 
-So we need to find the right/good balance without overfitting and underfitting the data.
-This tradeoff in complexity is why there is a tradeoff between bias and variance. 
-An algorithm can’t be more complex and less complex at the same time.
-Total Error
-To build a good model, we need to find a good balance between bias and variance such that it minimizes the total error.</t>
-  </si>
-  <si>
     <t>Variance:
 In the context of machine learning, variance refers to the sensitivity of a model to the specific dataset on which it was trained. A model with high variance may perform well on the training data but poorly on new, unseen data, as it tends to capture noise or random fluctuations in the training set.
 When the data has high variance, it means that the model's predictions are sensitive to small fluctuations in the training data. This situation is often referred to as "overfitting.
@@ -14431,9 +14079,6 @@
     </r>
   </si>
   <si>
-    <t>When a model is trained on an imbalanced dataset, then the model's predictions will be biased toward the majority class and it may not perform well on the minority class as it may have not seen much data of the minority class to understand the patterns effectively.</t>
-  </si>
-  <si>
     <t>Disadvantage of smote is that it doesn't look at the majority class and the features it produces might be duplicates in the majority class.
 If the minority features are having noise data we may not be able to produce the appropriate features.
 Generating synthetic instances increases the size of the dataset. This can lead to longer training times.</t>
@@ -14480,23 +14125,6 @@
   <si>
     <t>What is the difference between Type I and Type II errors?
 Answer: Type I error occurs when a true null hypothesis is rejected, and Type II error occurs when a false null hypothesis is not rejected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When both precision and recall are important and you need to strike a balance between them, you can use an evaluation metric that combines both aspects into a single measure. One commonly used metric for achieving this balance is the F1-score.
-The F1-score is the harmonic mean of precision and recall and provides a single value that takes into account both false positives (precision) and false negatives (recall). It balances the trade-off between precision and recall, making it suitable for situations where you want a balance between correctly identifying positive instances and minimizing false positives and false negatives.
-we use the F1 score which is also known F Beta score.
-F-Beta=(1+Beta square)(precision*recall)/(Beta square*precision)+Recall
-Here, β is a parameter that controls the trade-off between precision and recall.
-When 
-β=1, it is the harmonic mean of precision and recall, and both are considered equally important.
-When β&gt;1, recall is given more weight, and the Fβ score becomes more sensitive to false negatives.
-When 0&lt;β&lt;1, precision is given more weight, and the Fβ score becomes more sensitive to false positives.
-Calculate F1-Score: Calculate the F1-score for your model. This metric takes into account both precision and recall, providing a balanced measure of performance.
-Range: 0 to 1
-Interpretation: An F1 score of 1 indicates perfect precision and recall. As the F1 score decreases, there's a trade-off between precision and recall.
-Set a Threshold: If your model allows you to adjust prediction thresholds (e.g., in a binary classification problem), you can experiment with different thresholds to find a balance between precision and recall that suits your needs.
-Visualize the Trade-off: You can plot a precision-recall curve for different thresholds to visualize how changes in threshold affect both precision and recall. This can help you identify a threshold that aligns with your desired balance.
-</t>
   </si>
   <si>
     <t>Specificity</t>
@@ -14648,22 +14276,6 @@
 Again build the model with leftover independent variables.
 Repeat the process until the removal of any variable will affect the accuracy of the model.</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Missing values in a dataset are the values that may not have been recorded.
-Missing values can be for different reasons the people might have deliberately not given some information, and for sensor data it could be because sensors might not be working. And when this happens, you can lose significant information.
-Now, there is no perfect way to handle missing values that will give you an accurate result as to what the missing value is. But there are several techniques that you can leverage that will give you decent performance.
-Types of missing values:
-missing completely at random:
-Missing completely at random is the data that is missing randomly and we cannot find any patterns for the missing data and there is no logical reason of why it is missing, we cannot find an optimal technique to impute the missing values.
-Often the choice of which value to impute is down to a flip of a coin. These values are most clearly identified when you cannot predict the missing value from the remaining know variables. The fact that it is missing is independent of the remaining variables.
-missing values at random:
-it is a kind of missing data and can be found with the help of another variable. and there is no relationship between the missing and the nonmissing values of the respective column
-missing values which are not random:
-Missing not at random or nonignorable data is data where the mechanism for why the data is missing is known. Still, the values can not effectively be inferred or predicted. and there is some relationship between the missing and the nonmissing values of the respective column
-An example of this form of data is a demographic for survey-avoiding questions. For example, perhaps people in a certain age/income bracket refuse to answer how many vehicles or houses they own. The mechanism here may be apparent, but inferring the actual value of the missing data is difficult to predict accurately.
-https://towardsdatascience.com/missing-value-handling-missing-data-types-a89c0d81a5bb
-</t>
   </si>
   <si>
     <r>
@@ -18405,6 +18017,914 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Iterators:
+Python objects that iterate through iterable objects are called Iterators. It is used to iterate over objects by returning one value at a time. Iterators are created by using the iter() function. The function next() is used to get the subsequent value from the iterator.
+Iterators are commonly used in for loops to iterate over elements in a sequence. Many built-in data types in Python, such as lists, tuples, and dictionaries, are iterable objects, and you can obtain iterators from them using the iter() function.
+Generators:
+Definition: A generator is a special type of iterator that is defined using a function with one or more yield statements. 
+ A generator is a special type of iterator that allows you to iterate over a potentially large sequence of data without loading the entire sequence into memory at once. 
+When the function is called, it returns a generator object. Execution of the function is paused when a yield statement is encountered, and the value is returned to the caller. The function's state is saved, allowing it to continue from where it left off when the next value is requested.
+Generators are often used in scenarios where you have a large set of data and want to iterate over it efficiently without loading the entire set into memory. They are memory-efficient and allow for lazy evaluation, producing values on-the-fly as needed.
+Use Case: Generators are used for simplifying the creation of iterators and for implementing iterators in a more concise and readable way. They are often used for generating sequences of data lazily.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shallow Copy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A shallow copy creates a new object, but it does not create new objects for the elements within the original object. Instead, it copies references to the nested objects.
+Changes made to the nested objects within the copied structure will be reflected in the original structure and vice versa.
+Shallow copy can be performed using the copy module's copy() function or using the copy method of certain data types.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deep Copy:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A deep copy creates a new object and recursively copies all objects found in the original structure. It means that new objects are created for all the nested objects as well.
+Changes made to the nested objects within the copied structure do not affect the original structure, and vice versa.
+Deep copy can be performed using the copy module's deepcopy() function.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Difference between Map and Apply:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The map method is primarily used for element-wise operations on Series. It is not typically used with DataFrames.
+It applies a function to each element in the Series, element by element.
+It is useful when you want to apply a function to each element of a single Series and do not need to access other columns or rows in the DataFrame.
+The apply method is used for applying a function to rows or columns of a data frame, not just individual elements. It is a more versatile method.
+You can use it to apply a function to either rows or columns (specified by the axis parameter).
+It is useful for more complex operations that require access to multiple elements in a row or column.
+The result of the applied operation can be a Series or data frame, depending on the applied function.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Understand the Problem:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Articulate and understand the problem you are trying to solve. Define the problem statement and objectives.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Explore the Data:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Obtain and load the dataset. Explore the data to understand its structure, features, and relationships. Check for missing values, outliers, and anomalies.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3. Preprocess the Data:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Handle missing data, outliers, and anomalies appropriately.
+Encode categorical variables and perform feature scaling if needed. Split the data into training and testing sets.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4. Exploratory Data Analysis (EDA):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Perform EDA to gain insights into the data. Visualize key relationships and distributions. Identify patterns and potential correlations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5. Feature Engineering:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Create new features or transform existing ones to enhance the model's performance. Consider domain knowledge and expert input.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. Model Selection:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Choose a suitable machine learning model based on the nature of the problem (classification, regression, etc.).
+Consider the characteristics of the data and the interpretability of the model.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">7. Model Training:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Train the selected model on the training data. Tune hyperparameters to optimize model performance. Use cross-validation to assess generalization performance.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8. Model Evaluation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Evaluate the model on the testing set using appropriate metrics (accuracy, precision, recall, F1-score, etc.).Discuss the model's strengths and limitations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. Iterative Improvement:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If the model performance is not satisfactory, iterate by adjusting features, trying different algorithms, or tuning hyperparameters.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10. Deployment Considerations:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Discuss considerations for deploying the model in a real-world setting. Mention scalability, robustness, and ethical considerations.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how do you interpret a VIF value of 2 for an independent variable?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Interpretation: If the VIF of a variable is 3, it suggests that the uncertainty in estimating the effect of that variable is three times higher because of its correlation with other variables in the model.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing values are simply empty or undefined entries in a dataset. They occur when certain data points or observations are not recorded or available for some variables. These missing values can affect the accuracy and reliability of data analysis and modeling.
+Now, there is no perfect way to handle missing values that will give you an accurate result as to what the missing value is. But there are several techniques that you can leverage that will give you decent performance.
+Types of missing values:
+missing completely at random:
+Missing completely at random is the data that is missing randomly and we cannot find any patterns for the missing data and there is no logical reason of why it is missing, we cannot find an optimal technique to impute the missing values.
+Often the choice of which value to impute is down to a flip of a coin. These values are most clearly identified when you cannot predict the missing value from the remaining know variables. The fact that it is missing is independent of the remaining variables.
+missing values at random:
+it is a kind of missing data and can be found with the help of another variable. and there is no relationship between the missing and the nonmissing values of the respective column
+missing values which are not random:
+Missing not at random or nonignorable data is data where the mechanism for why the data is missing is known. Still, the values can not effectively be inferred or predicted. and there is some relationship between the missing and the nonmissing values of the respective column
+An example of this form of data is a demographic for survey-avoiding questions. For example, perhaps people in a certain age/income bracket refuse to answer how many vehicles or houses they own. The mechanism here may be apparent, but inferring the actual value of the missing data is difficult to predict accurately.
+https://towardsdatascience.com/missing-value-handling-missing-data-types-a89c0d81a5bb
+</t>
+  </si>
+  <si>
+    <t>Interpolation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Interpolation methods estimate missing values based on the values around them. Popular methods include linear interpolation, polynomial interpolation, and spline interpolation.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linear Interpolation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+As mentioned earlier, linear interpolation assumes a straight-line relationship between known values. It's a simple method that estimates missing values by drawing a straight line between two adjacent known points.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Polynomial Interpolation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Polynomial interpolation involves fitting a polynomial function to the known data points. Commonly used is the Lagrange polynomial or Newton polynomial. This method provides a more flexible way to capture the shape of the data but can be sensitive to the distribution of data points.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">outliers are the data points that are very distinct from the other data points of that particular feature in the dataset.
+The performance of a model will be affected due to the presence of outliers.
+So before training a model with a dataset we first need to check and treat these outliers first and only after that we should proceed.
+For a model of generalize well on testing data because the impact of outliers changes the value of mean and std. because of which the value of coefficients of the various models will be varied and this may result in biased outputs. we cannot remove outliers easily as it needs domain expertise.
+anomaly in the dataset that may be caused by a range of errors in capturing, processing or manipulating data. 
+Why outlier analysis?
+Most data mining methods discard outliers noise or exceptions, however, in some applications such as fraud detection, 
+the rare events can be more interesting than the more regularly occurring ones and 
+hence, the outlier analysis becomes important in such cases.
+</t>
+  </si>
+  <si>
+    <t>Visual Inspection:
+Box Plots: Visualize the distribution of data using box plots and identify points beyond the whiskers as potential outliers.
+Scatter Plots: Examine scatter plots to identify data points that deviate from the general trend.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">How to detect Outliers?
+1. using standard deviation 
+When the data, or certain features in the dataset, follow a normal distribution, you can use the standard deviation of the data, or the equivalent z-score to detect outliers.
+In statistics, standard deviation measures the spread of data around the mean, and in essence, it captures how far away from the mean the data points are.
+For data that is normally distributed, around 68.2% of the data will lie within one standard deviation from the mean. Close to 95.4% and 99.7% of the data lie within two and three standard deviations from the mean, respectively.
+upper limit=mean+3*std
+lower limit=mean-3*std
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. Z-score:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The Z-Score, also known as the standard score or z-value, is a measure of how many standard deviations a particular data point is from the mean of a distribution.
+For example, a z-score of 2.5 indicates that the data point is 2.5 standard deviations away from the mean. Usually z-score =3 is considered a cut-off value to set the limit. Therefore, any z-score greater than +3 or less than -3 is considered an outlier which is pretty much similar to the standard deviation method.
+Z=x-xmean/std
+where s is std,x` is mean
+when to use z-score as an outlier detection technique?
+when the data is normally distributed as Z-score assumes data to be normally distributed
+</t>
+    </r>
+  </si>
+  <si>
+    <t>3. IQR:
+IQR defines a range around the median within which most data points are expected. Data points outside this range are considered outliers. Suitable for non-normally distributed data.
+We can use the IQR method of identifying outliers to set up a “fence” outside of Q1 and Q3. Any values that fall outside of this fence are considered outliers. To build this fence we take 1.5 times the IQR and then subtract this value from Q1 and add this value to Q3.
+Inner fence = [Q1-1.5*IQR, Q3+1.5*IQR]
+Outer fence = [Q1–3*IQR, Q3+3*IQR]
+Values less than the inner fence and values more than the outer fence are considered outliers.
+when to use IQR:
+If the data is not normally distributed, you can use the interquartile range or percentage methods to detect outliers.</t>
+  </si>
+  <si>
+    <t>5. DBSCAN
+This technique is based on the DBSCAN clustering method. DBSCAN is a non-parametric, 
+density-based outlier detection method in a one or multi-dimensional feature space.
+In the DBSCAN clustering technique, all data points are defined either as Core Points, Border Points, or Noise Points.
+Core Points are data points that have at least MinPts neighboring data points within a distance ℇ.
+Border Points are neighbors of a Core Point within the distance ℇ but with less than MinPts neighbors within the distance ℇ.
+All other data points are Noise Points, also identified as outliers.
+It is also used as a density-based anomaly detection method with either single or multi-dimensional data. Other clustering algorithms such as k-means and hierarchal clustering can also be used to detect outliers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+4. Isolation Forest:
+Isolation Forest is an ensemble method that isolates outliers efficiently. Suitable for high-dimensional data.
+Train the Isolation Forest model on your dataset, excluding the target variable (the variable you want to identify anomalies in).
+After training, the model assigns an anomaly score to each data point. The anomaly score is a measure of how different a point is compared to the majority of the data.
+Choose a threshold for anomaly scores. Points with anomaly scores below this threshold are considered normal, while points with scores above the threshold are flagged as potential anomalies.
+Isolation Forest is a tree-based algorithm that tries to find out outliers based on the concept of decision boundaries(just like we have for decision trees). The idea over here is to keep splitting the data at random thresholds and features till every point gets isolated(it’s like overfitting a decision tree on a dataset). Once the isolation is achieved we chunk out points that got isolated pretty early during this process. And we mark these points as potential outliers. If you see this intuitively, the farther a point is from the majority, the easier it gets to isolate, whereas, isolating the points that are part of a group would require more cuts to isolate every point.
+Isolation forest is one of the efficient ways to detect outliers,it works well on the high dimensional dataset.
+It works well because it doesn't care what type of data you are feeding to it like numerical or categorical, high dimensional or low dimensional.
+The model builds a random forest in which each each decision tree is built randomly.
+At each node it picks a feature randomly and a random threshold value to split the dataset into two.
+As the dataset gradually gets chopped off, each observation gets isolation from others.
+Anomalies are far from the other so they get to be isolated in less steps than the other observations.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6. One class SVM:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+One class SVM is an unsupervised ML technique in which we only give the values of one class and try to draw a hypersphere around that class values and differentiate the values outside it as outliers.
+One-class SVM is particularly useful when you have a dataset with predominantly normal instances and a relatively small proportion of outliers. It works well in high-dimensional spaces and can capture complex shapes of normal data.
+we only feed normal instances as input to the model and based on the input the model creates boundaries  and when a new datapoint is given, if that datapoint is within the boundaries created the datapoint will be classified as inliner else outlier. the output will be 1 for the inliner and -1 for the outlier.
+it is also called novelty detection because we will not give the other class examples while training.
+In normal SVM we try to find a line where the perpendicular distance between the closest points of two distinct classes is maximum.
+But in one class SVM we try to find a line that separates the normal points from the origin, here the origin is treated as the other class.
+The points that are on the other side of the plane are treated as outliers.
+7. Density-Based Anomaly Detection 
+Density-based anomaly detection is based on the k-nearest neighbors algorithm.
+Assumption: Normal data points occur around a dense neighborhood and abnormalities are far away. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">What is multicollinearity, and how do you treat it?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">High correlation among independent variables in a dataset is known as multicollinearity. Multicollinearity can have several consequences, and it can impact the interpretation and performance of statistical models, particularly in linear regression. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Impact on Regression Coefficients:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In the presence of multicollinearity, the coefficients of the correlated variables can become unstable and sensitive to small changes in the data. This makes it challenging to interpret the individual effect of each variable on the dependent variable.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Increased Standard Errors:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The standard errors of the regression coefficients tend to be larger when multicollinearity is present. Larger standard errors mean wider confidence intervals and can make it difficult to determine the statistical significance of the coefficients.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reduced Precision of Predictions:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Multicollinearity can lead to reduced precision in predicting the dependent variable. The model may have difficulty distinguishing the individual effects of correlated variables, resulting in less accurate predictions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Loss of Variable Importance:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+It becomes challenging to determine which correlated variables are truly important for explaining the variation in the dependent variable. The model may assign similar importance to all correlated variables, even if one of them is more theoretically significant.
+we can check multicollinearity using correlation matrix and calculating VIF?
+Depending on the situation, it may not be a problem for your model if only slight or moderate collinearity issue occurs. 
+However, it is strongly advised to solve the issue if severe collinearity issue exists
+(e.g. correlation &gt;0.8 between 2 variables or Variance inflation factor(VIF) &gt;20 )
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing values in a dataset are the values that may not have been recorded.
+Missing values can be for different reasons the people might have deliberately not given some information, and for sensor data it could be because sensors might not be working. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It helps to identify whether there is a problem of multicollinearity in a regression model.
+ In simpler terms, it tells us the extent to which the variance of a specific variable is already explained by the other predictor variables in the model.
+Calculation: The VIF for each predictor variable is calculated by fitting a linear regression model where that variable is treated as the dependent variable, and the other predictor variables are treated as independent variables. The VIF is computed as the ratio of the variance of the estimated coefficients in this regression model to the variance of the coefficients when there is no multicollinearity. Mathematically, for a predictor variable X, the VIF is calculated as:
+VIF(X) = 1 / (1 - R²)
+where R² is the coefficient of determination of the regression model.</t>
+  </si>
+  <si>
+    <t>Why is Bias Variance Tradeoff?
+The bias-variance tradeoff is a fundamental concept in machine learning that addresses the tradeoff between the model's ability to fit the training data well (low bias) and its ability to generalize to new, unseen data (low variance). 
+Variance is one of the two sources of error in a predictive model, the other being bias. 
+If our model is too simple and has very few parameters then it may have high bias and low variance. 
+On the other hand if our model has large number of parameters then it’s going to have high variance and low bias. 
+So we need to find the right/good balance without overfitting and underfitting the data.
+This tradeoff in complexity is why there is a tradeoff between bias and variance. 
+An algorithm can’t be more complex and less complex at the same time.
+Total Error
+To build a good model, we need to find a good balance between bias and variance such that it minimizes the total error.</t>
+  </si>
+  <si>
+    <t>Biased Model Performance:
+Issue: The model may become biased towards the majority class, as it is more prevalent in the dataset.
+Consequence: The model may struggle to accurately predict the minority class, leading to poor performance metrics for the minority class, such as low recall or sensitivity.
+Misleading Accuracy:
+Issue: Accuracy alone may not be a reliable performance metric in imbalanced datasets.
+Consequence: A model that predicts the majority class for all instances can still achieve high accuracy if the majority class dominates the dataset. However, it fails to address the minority class.
+Difficulty in Learning Minority Patterns:
+Issue: The model may have difficulty learning patterns from the minority class due to the limited number of instances.
+Consequence: The model may struggle to generalize well to unseen instances of the minority class, leading to a lack of sensitivity in predictions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When both precision and recall are important and you need to strike a balance between them, you can use an evaluation metric that combines both aspects into a single measure. One commonly used metric for achieving this balance is the F1-score.
+The F1-score is the harmonic mean of precision and recall and provides a single value that takes into account both false positives (precision) and false negatives (recall). It balances the trade-off between precision and recall, making it suitable for situations where you want a balance between correctly identifying positive instances and minimizing false positives and false negatives.
+we use the F1 score which is also known F Beta score.
+F-Beta=(1+Beta square)(precision*recall)/(Beta square*precision)+Recall
+Here, β is a parameter that controls the trade-off between precision and recall.
+When 
+β=1, it is the harmonic mean of precision and recall, and both are considered equally important.
+When β&gt;1, recall is given more weight, and the Fβ score becomes more sensitive to false negatives.
+When 0&lt;β&lt;1, precision is given more weight, and the Fβ score becomes more sensitive to false positives.
+Range: 0 to 1
+Interpretation:  
+High F1 Score (Close to 1): Indicates a good balance between precision and recall. The model is effective in making accurate positive predictions while capturing a high percentage of actual positive instances.
+Low F1 Score (Close to 0): Suggests an imbalance between precision and recall. The model may be biased towards one of the metrics, either making many false positives (low precision) or missing a significant number of positive instances (low recall).
+F1 Score = 0: Indicates that either precision or recall is zero, meaning the model is not performing well in predicting positive instances.
+Set a Threshold: If your model allows you to adjust prediction thresholds (e.g., in a binary classification problem), you can experiment with different thresholds to find a balance between precision and recall that suits your needs.
+Visualize the Trade-off: You can plot a precision-recall curve for different thresholds to visualize how changes in threshold affect both precision and recall. This can help you identify a threshold that aligns with your desired balance.
+</t>
+  </si>
+  <si>
+    <t>steps for visualizing the ROC-AUC curve:
+1. After performing prediction on the test data we need to evaluate it, since the predictions are prob scores we need to decide an optimal threshold that classifies the samples better.
+2. Initially we will consider various thresholds between 0 and 1 let's say [0,0.2,0.4,0.6,0.8].
+3. we consider each threshold value let's say 0.2 and assign 1 to the samples that are having prob score more than 0.2 and 0 to the samples that are having prob less than 0.2  and then calculate TPR AND FPR, similarly for each threshold we will calculate the TPR AND FPR and we will get different TPR AND FPR values for each threshold.
+4. Then we plot all the TPR AND FPR w.r.to each threshold. x-axis typically represents the False Positive Rate (FPR), and the y-axis represents the True Positive Rate (TPR).
+5. Now we need to finalize the threshold value depending on our use case.
+6. suppose the business people say that we only need to consider TPR and it shouldn't have FPR then we will consider the threshold where FPR is very low.
+7. THe curve should be as high as possible.
+8. The ROC must be higher than 0.5 or else it means that the model is not performing well.
+9. The area under ROC is known as AUC.AUC ranges in value from 0 to 1. A model whose predictions are 100% wrong has an AUC of 0.0; one whose predictions are 100% correct has an AUC of 1.0.
+How to use the AUC ROC curve for the multi-class model?
+In a multi-class model, we can plot the N number of AUC ROC Curves for N number classes using the One vs ALL methodology. 
+So for example, If you have three classes named X, Y, and Z, you will have one ROC for X classified against Y and Z, another ROC for Y classified against X and Z, and the third one for Z classified against Y and X.</t>
+  </si>
+  <si>
+    <t>check for frequency and assign a unique category for the categories with low frequency.
+Identify the categories that are similar and assign same value to similar categories</t>
+  </si>
+  <si>
+    <t>when more categories for nominal feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dimensionality reduction techniques aim to transform or select features in a way that retains the essential information while reducing the overall dimensionality of the dataset.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Difference between feature selection and dimensionality reduction?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Feature selection involves choosing a subset of relevant features from the original set of features. The selected features are retained, and the others are discarded.
+Dimensionality reduction involves transforming the original feature space into a lower-dimensional space while preserving essential information. It creates new features that are linear or nonlinear combinations of the original features.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Linearity:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">we can make use of scatter plots and residual plots to check for linearity
+If we are using a scatter plot then we need to plot each feature against the target variable and check if the data points are split and form a straight line, without any clear pattern, then the dataset is linear.
+If the data points within a feature are not in a straight line or if they are in the form of a curve, then we need to transform the data using various transformation techniques such as log transform, square transform, etc.
+If we are using residual plots then we plot residuals on the y-axis and predicted values on the x-axis.
+The points must be scattered randomly around the horizontal axis if there is a
+ If there is a clear pattern (e.g., funnel shape, U-shape), it suggests heteroscedasticity or non-linearity.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Homoscedasticity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A random scatter of residuals around the horizontal axis suggests constant variance. If the spread of residuals is relatively consistent as the predicted values increase, homoscedasticity is likely satisfied. Ensure a consistent spread of points; avoid patterns like a funnel shape.
+Homoscedasticity is violated if the spread does not remain consistent across the range of fitted values.
+If the spread of residuals systematically changes with different levels of predictors, homoscedasticity is not met.
+what happens if the model doesn't follow homoscedasticity?
+When a linear regression model violates the assumption of homoscedasticity (constant variance of residuals), it can lead to inefficient parameter estimates and biased standard errors.
+Apply a transformation to the dependent variable, such as taking the logarithm.
+Implement weighted least squares regression, where each observation is assigned a weight based on the inverse of its variance.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Independence of Residuals(Auto Correlations):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Plot the residuals against the fitted (predicted) values.
+Look for a random scatter of points with no discernible pattern. If there is a pattern, it may suggest a violation of independence.
+Include lagged values of the residuals as additional predictors in the model if the model suffers with autocorrelation. Assign weights to observations based on the degree of autocorrelation.
+If there is Auto correlation within the data and the dataset belong to time series then make use of time series models like ARIMA.
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>methods to check normality assumption?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Shapiro-Wilk Test:
+Method: Perform the Shapiro-Wilk test, a statistical test for normality. The null hypothesis is that the data is normally distributed.
+Interpretation: If the p-value is greater than the chosen significance level (e.g., 0.05), you fail to reject the null hypothesis, suggesting normality.
+4. Kolmogorov-Smirnov Test:
+Method: Similar to the Shapiro-Wilk test, the Kolmogorov-Smirnov test assesses whether the sample distribution is significantly different from a normal distribution.
+Interpretation: A higher p-value indicates that the data is consistent with normality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Durbin-Watson Test:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Method: A statistical test that assesses autocorrelation by examining the correlation between consecutive residuals.
+Interpretation: The test statistic ranges from 0 to 4, with values close to 2 indicating no autocorrelation. Values significantly below 2 (less than 1.5) suggest positive autocorrelation, while values significantly above 2 (greater than 2.5) suggest negative autocorrelation.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -18578,7 +19098,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18606,6 +19126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18838,7 +19364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -18977,6 +19503,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -18996,6 +19532,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -19413,7 +19952,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -19437,7 +19976,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -19445,7 +19984,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -19453,7 +19992,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -19476,7 +20015,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
@@ -19484,7 +20023,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
@@ -19492,7 +20031,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
@@ -19500,7 +20039,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
@@ -19556,7 +20095,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
@@ -19564,7 +20103,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
@@ -19572,12 +20111,12 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -19585,7 +20124,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -19593,7 +20132,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
@@ -19601,7 +20140,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
@@ -19609,7 +20148,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
@@ -19617,7 +20156,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
@@ -19625,7 +20164,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
@@ -19633,7 +20172,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -19641,7 +20180,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
@@ -19649,7 +20188,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
@@ -19657,15 +20196,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B41" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
@@ -19673,7 +20212,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -19698,37 +20237,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1119</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1118</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>1120</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1121</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1122</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1123</v>
+        <v>1106</v>
       </c>
     </row>
   </sheetData>
@@ -19752,98 +20291,98 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1125</v>
+        <v>1108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1124</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1126</v>
+        <v>1109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1129</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1127</v>
+        <v>1110</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1130</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1128</v>
+        <v>1111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1131</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1135</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1133</v>
+        <v>1116</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1134</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1137</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1138</v>
+        <v>1121</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1136</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="319.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1139</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1140</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1141</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>1142</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1143</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>1144</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>1145</v>
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
@@ -19853,10 +20392,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B5D22B-731D-4B12-B5EB-ED12599E6F65}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19875,324 +20414,336 @@
     </row>
     <row r="2" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1020</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>132</v>
-      </c>
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>831</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="239.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>135</v>
-      </c>
+        <v>805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="205.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>816</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C26" s="11"/>
-    </row>
-    <row r="27" spans="1:3" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="271.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="B29" s="3" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="271.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="130.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="C32" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>798</v>
-      </c>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="B43" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
+      <c r="C45" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="11" t="s">
+    </row>
+    <row r="46" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="B46" s="1" t="s">
-        <v>494</v>
+    <row r="48" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C25" r:id="rId1" location=":~:text=Root%20Mean%20Squared%20Error%20(RMSE,the%20total%20number%20of%20points." xr:uid="{F82A5379-20A9-49BB-A15E-FFFEF7F3AC11}"/>
-    <hyperlink ref="C43" r:id="rId2" xr:uid="{F8D25948-4650-4867-83A4-B6CA3649551C}"/>
-    <hyperlink ref="C30" r:id="rId3" xr:uid="{59025D9D-AF3F-4EEB-A9EB-C1FE1ED84A30}"/>
+    <hyperlink ref="C27" r:id="rId1" location=":~:text=Root%20Mean%20Squared%20Error%20(RMSE,the%20total%20number%20of%20points." xr:uid="{F82A5379-20A9-49BB-A15E-FFFEF7F3AC11}"/>
+    <hyperlink ref="C45" r:id="rId2" xr:uid="{F8D25948-4650-4867-83A4-B6CA3649551C}"/>
+    <hyperlink ref="C32" r:id="rId3" xr:uid="{59025D9D-AF3F-4EEB-A9EB-C1FE1ED84A30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -20223,127 +20774,127 @@
     </row>
     <row r="2" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1032</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1033</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1034</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -20362,8 +20913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5480AC01-EFC7-4E15-B07D-B250AF37033A}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20382,132 +20933,132 @@
     </row>
     <row r="2" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -20540,90 +21091,90 @@
     </row>
     <row r="2" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1182</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1183</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1184</v>
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -20654,65 +21205,65 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
-        <v>169</v>
+      <c r="A2" s="69" t="s">
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -20746,221 +21297,221 @@
         <v>12</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1168</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1169</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="267" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>1163</v>
+        <v>1146</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1164</v>
+        <v>1147</v>
       </c>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="360" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1165</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>1166</v>
+        <v>1149</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1167</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -20980,7 +21531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425C52BC-ABC6-48CA-AB80-9C3D4AAC6A35}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -21000,193 +21551,193 @@
     </row>
     <row r="2" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1170</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="345" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>994</v>
+        <v>982</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -21218,112 +21769,112 @@
     </row>
     <row r="2" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1171</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1010</v>
+        <v>998</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1002</v>
+        <v>990</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>971</v>
+        <v>959</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1008</v>
+        <v>996</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1009</v>
+        <v>997</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>1004</v>
+        <v>992</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -21356,96 +21907,96 @@
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
     </row>
   </sheetData>
@@ -21478,88 +22029,88 @@
     </row>
     <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>969</v>
+        <v>957</v>
       </c>
       <c r="C3" s="11"/>
     </row>
     <row r="4" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C4" s="11"/>
     </row>
     <row r="5" spans="1:3" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1173</v>
+        <v>1156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1011</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1174</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>1012</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>970</v>
+        <v>958</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1013</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -21587,7 +22138,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -21595,34 +22146,34 @@
     </row>
     <row r="2" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -21654,159 +22205,159 @@
     </row>
     <row r="2" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="62" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B2" s="63" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>1180</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="292.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1172</v>
+        <v>1155</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1181</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>1178</v>
+        <v>1161</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1179</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1177</v>
+        <v>1160</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1176</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C17" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>972</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -21834,124 +22385,124 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1014</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1175</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1015</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1016</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1017</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1018</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -21986,533 +22537,533 @@
     </row>
     <row r="2" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>1074</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>1075</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="248.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1072</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="360" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1073</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1070</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1071</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="159" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1076</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>1077</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1150</v>
+        <v>1133</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1151</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="354.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1079</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1146</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1147</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="180" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B44" s="36" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>1082</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="90" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B47" s="36" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="405" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="B48" s="36" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1083</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A54" s="14" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1084</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1080</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>1081</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>1148</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>1085</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="B74" s="40" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="B75" s="40" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>1087</v>
+        <v>1070</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1086</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -22522,10 +23073,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2A574E-9A7D-4130-A090-437FE33DEBCF}">
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22536,39 +23087,39 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>1037</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
-        <v>524</v>
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
+        <v>520</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1035</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="216" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="3" t="s">
         <v>27</v>
       </c>
@@ -22577,10 +23128,10 @@
     </row>
     <row r="8" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -22590,203 +23141,203 @@
         <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="216" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="147.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>1038</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1039</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1045</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="295.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="274.8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>1047</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="210" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>1048</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="1" t="s">
-        <v>1040</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
-        <v>1042</v>
+        <v>1028</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1041</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1043</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="270" x14ac:dyDescent="0.35">
       <c r="B34" s="38" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="300" x14ac:dyDescent="0.35">
       <c r="A36" s="32" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>1044</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -22794,65 +23345,65 @@
         <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>1049</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B40" s="39" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="195" x14ac:dyDescent="0.35">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="175.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1051</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1050</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D44" s="2"/>
     </row>
@@ -22881,7 +23432,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1052</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
@@ -22889,77 +23440,77 @@
         <v>15</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="397.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1054</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>1055</v>
+        <v>1039</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>1056</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>1058</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>631</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
-        <v>1061</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>1059</v>
+        <v>1043</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1060</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="360" x14ac:dyDescent="0.3">
@@ -22967,7 +23518,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1057</v>
+        <v>1041</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -22981,7 +23532,7 @@
     </row>
     <row r="60" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>31</v>
@@ -22991,7 +23542,7 @@
     </row>
     <row r="61" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>32</v>
@@ -23001,492 +23552,508 @@
     </row>
     <row r="62" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1063</v>
+        <v>1047</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1062</v>
+        <v>1046</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1064</v>
+        <v>1048</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="75" t="s">
+        <v>1202</v>
+      </c>
       <c r="B73" s="3" t="s">
-        <v>78</v>
+        <v>1201</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B74" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" ht="30" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="60" x14ac:dyDescent="0.35">
+      <c r="A77" s="6"/>
+      <c r="B77" s="36" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B75" s="36" t="s">
+    </row>
+    <row r="79" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A82" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
+      <c r="B84" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
+    </row>
+    <row r="85" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A85" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+    <row r="86" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A88" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="11"/>
+    </row>
+    <row r="89" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B89" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+      <c r="B92" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B82" s="1" t="s">
+    </row>
+    <row r="93" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B93" s="1" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="B83" s="1" t="s">
+    <row r="94" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="B94" s="1" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A86" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C86" s="11"/>
-    </row>
-    <row r="87" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A87" s="14" t="s">
+    <row r="95" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B95" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A88" s="14" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A89" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="B89" s="1" t="s">
+    </row>
+    <row r="96" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>652</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>654</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>650</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="B91" s="1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="B92" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="B93" s="1" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>658</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C95" s="11" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>660</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>662</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" ht="288" x14ac:dyDescent="0.3">
-      <c r="B98" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B99" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B101" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B102" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="B103" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B104" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="165" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>664</v>
+      </c>
+      <c r="B107" s="36" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B108" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>667</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
-        <v>665</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" ht="165" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="110" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>670</v>
       </c>
-      <c r="B105" s="36" t="s">
+      <c r="B110" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B106" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>673</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="B113" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B108" s="1" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="B114" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" ht="72" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B110" s="1" t="s">
+    </row>
+    <row r="116" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B111" s="1" t="s">
+    <row r="117" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+    <row r="118" spans="1:2" ht="30" x14ac:dyDescent="0.35">
+      <c r="B118" s="37" t="s">
         <v>685</v>
       </c>
-      <c r="B113" s="1" t="s">
+    </row>
+    <row r="119" spans="1:2" ht="45" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="B114" s="1" t="s">
+      <c r="B119" s="36" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" ht="30" x14ac:dyDescent="0.35">
-      <c r="B116" s="37" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" ht="45" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B117" s="36" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" ht="288" x14ac:dyDescent="0.3">
-      <c r="B119" s="1" t="s">
+    <row r="121" spans="1:2" ht="285.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B122" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B124" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="B125" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="B126" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="B127" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="B128" s="1" t="s">
         <v>740</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="B120" s="1" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="B121" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B122" s="1" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="B123" s="1" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B124" s="1" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="B125" s="1" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" ht="216" x14ac:dyDescent="0.3">
-      <c r="B126" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -23496,9 +24063,9 @@
   <hyperlinks>
     <hyperlink ref="C44" r:id="rId1" xr:uid="{64FA4287-76C4-4F59-A9E4-7C22CFC0E811}"/>
     <hyperlink ref="C62" r:id="rId2" xr:uid="{0BF479B2-0B1D-4F6E-89CD-DE0F01DF14F4}"/>
-    <hyperlink ref="C80" r:id="rId3" xr:uid="{5DC29A4B-04A5-45A3-8147-A0C617203ACB}"/>
-    <hyperlink ref="C85" r:id="rId4" xr:uid="{05A0094A-2A8C-4806-9D4E-4C8EB92502CA}"/>
-    <hyperlink ref="C95" r:id="rId5" xr:uid="{8AF8F320-030F-46BD-9377-77C4BF5B8836}"/>
+    <hyperlink ref="C82" r:id="rId3" xr:uid="{5DC29A4B-04A5-45A3-8147-A0C617203ACB}"/>
+    <hyperlink ref="C87" r:id="rId4" xr:uid="{05A0094A-2A8C-4806-9D4E-4C8EB92502CA}"/>
+    <hyperlink ref="C97" r:id="rId5" xr:uid="{8AF8F320-030F-46BD-9377-77C4BF5B8836}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23506,10 +24073,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F9766C-5467-4C6A-856C-E91C39450D47}">
-  <dimension ref="A1:D120"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:XFD108"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23528,122 +24095,128 @@
     </row>
     <row r="2" spans="1:3" s="22" customFormat="1" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>306</v>
-      </c>
       <c r="C2" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>489</v>
-      </c>
+    <row r="9" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
       <c r="B9" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C9" s="11"/>
-    </row>
-    <row r="10" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C10" s="11"/>
     </row>
-    <row r="11" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A12" s="66"/>
+    <row r="11" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:3" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="69" t="s">
+        <v>166</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A13" s="70"/>
       <c r="B13" s="1" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="B14" s="1" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
-        <v>963</v>
-      </c>
+      <c r="B14" s="74" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="29"/>
       <c r="B15" s="1" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>496</v>
+        <v>952</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>497</v>
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>492</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
@@ -23671,7 +24244,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -23679,17 +24252,17 @@
     <row r="21" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>965</v>
+        <v>953</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -23697,7 +24270,7 @@
     <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>966</v>
+        <v>954</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -23707,7 +24280,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -23735,7 +24308,7 @@
     <row r="27" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>1155</v>
+        <v>1138</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -23745,17 +24318,17 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1157</v>
+        <v>1140</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>1158</v>
+        <v>1141</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1156</v>
+        <v>1139</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -23772,69 +24345,69 @@
     </row>
     <row r="31" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="2"/>
@@ -23842,74 +24415,82 @@
     </row>
     <row r="38" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>1159</v>
+        <v>1142</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>1160</v>
+        <v>1143</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>1161</v>
+        <v>1144</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>1162</v>
+        <v>1145</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4" ht="388.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1069</v>
+        <v>1184</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="67" t="s">
-        <v>66</v>
+      <c r="A41" s="71" t="s">
+        <v>64</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" ht="144" x14ac:dyDescent="0.3">
-      <c r="A42" s="67"/>
+      <c r="A42" s="71"/>
       <c r="B42" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="67"/>
+      <c r="A43" s="71"/>
       <c r="B43" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="67"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1186</v>
+      </c>
     </row>
     <row r="46" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>432</v>
+        <v>1187</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>58</v>
@@ -23919,623 +24500,655 @@
     <row r="47" spans="1:4" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="320.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
       <c r="B48" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" ht="288" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5"/>
+      <c r="B50" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="B51" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A52" s="5"/>
       <c r="B52" s="3" t="s">
-        <v>71</v>
+        <v>1190</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
-        <v>491</v>
-      </c>
+    <row r="53" spans="1:4" ht="282.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="5"/>
       <c r="B53" s="3" t="s">
-        <v>493</v>
+        <v>1192</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>61</v>
-      </c>
+    <row r="54" spans="1:4" ht="189" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
       <c r="B54" s="3" t="s">
-        <v>492</v>
+        <v>1191</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="56" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
-        <v>84</v>
-      </c>
+    <row r="55" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5"/>
+      <c r="B55" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
       <c r="B56" s="3" t="s">
-        <v>542</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="10">
-        <v>44935</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A57" s="67"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="B57" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>87</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="67"/>
+    <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="B58" s="3" t="s">
-        <v>86</v>
+        <v>488</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A59" s="42" t="s">
-        <v>840</v>
+    <row r="59" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="71" t="s">
+        <v>82</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>841</v>
+        <v>538</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
+      <c r="D59" s="10">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A60" s="71"/>
       <c r="B60" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
+    <row r="61" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="71"/>
       <c r="B61" s="3" t="s">
-        <v>488</v>
+        <v>84</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
-        <v>93</v>
+    <row r="62" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A62" s="42" t="s">
+        <v>834</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>94</v>
+        <v>835</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
-        <v>90</v>
-      </c>
+    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="5"/>
       <c r="B63" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>92</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>99</v>
-      </c>
+    <row r="64" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
       <c r="B64" s="3" t="s">
-        <v>96</v>
+        <v>484</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="2"/>
+    <row r="65" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>92</v>
+      </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="67" t="s">
-        <v>119</v>
+    <row r="66" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="D66" s="2"/>
     </row>
-    <row r="67" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="67"/>
+    <row r="67" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="B67" s="3" t="s">
-        <v>1152</v>
+        <v>94</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
-      <c r="A68" s="67"/>
-      <c r="B68" s="3" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="71"/>
+      <c r="B70" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="71"/>
+      <c r="B71" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="42"/>
+      <c r="B72" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C72" s="12"/>
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="42"/>
+      <c r="B73" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C73" s="12"/>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="42"/>
-      <c r="B69" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C69" s="12"/>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="42"/>
-      <c r="B70" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-    </row>
-    <row r="73" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" ht="201" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-    </row>
-    <row r="74" spans="1:4" ht="201" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B76" s="1" t="s">
+    </row>
+    <row r="81" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A82" s="71"/>
+      <c r="B82" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
-      <c r="B77" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="67" t="s">
-        <v>231</v>
-      </c>
-      <c r="B78" s="3" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A87" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A94" s="16" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="67"/>
-      <c r="B79" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="6"/>
-      <c r="B82" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A84" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+      <c r="B94" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C94" s="11"/>
+    </row>
+    <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A91" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C91" s="11"/>
-    </row>
-    <row r="93" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="B97" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="1"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="1"/>
+    </row>
+    <row r="104" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C104" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C105" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B107" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C109" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C101" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C102" s="11" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B104" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C106" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+      <c r="B113" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="B109" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+    </row>
+    <row r="115" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A115" s="69" t="s">
         <v>378</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="65" t="s">
+    <row r="116" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A116" s="69"/>
+      <c r="B116" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C116" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A117" s="69"/>
+      <c r="B117" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A113" s="65"/>
-      <c r="B113" s="1" t="s">
+    </row>
+    <row r="118" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="69"/>
+      <c r="B118" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C113" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A114" s="65"/>
-      <c r="B114" s="1" t="s">
+    </row>
+    <row r="119" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A119" s="69"/>
+      <c r="B119" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="65"/>
-      <c r="B115" s="1" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A116" s="65"/>
-      <c r="B116" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="336" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
+    <row r="120" spans="1:3" ht="336" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C120" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>699</v>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A81:A82"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C68" r:id="rId1" display="https://www.youtube.com/watch?v=gzrQvzYEvYc&amp;t=249s" xr:uid="{037A6B83-99E9-4A12-AA81-809B626C745F}"/>
-    <hyperlink ref="C87" r:id="rId2" xr:uid="{3D33C826-7135-4519-B140-F675D1123A86}"/>
-    <hyperlink ref="C88" r:id="rId3" xr:uid="{3824DA84-47CF-4D31-AA0E-04A22DAD8BCE}"/>
-    <hyperlink ref="C90" r:id="rId4" xr:uid="{66F746C5-1015-44FE-BFBA-28D184B276B8}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{4A4AA6B2-6479-419C-A043-9A61CB3C148B}"/>
+    <hyperlink ref="C71" r:id="rId1" display="https://www.youtube.com/watch?v=gzrQvzYEvYc&amp;t=249s" xr:uid="{037A6B83-99E9-4A12-AA81-809B626C745F}"/>
+    <hyperlink ref="C90" r:id="rId2" xr:uid="{3D33C826-7135-4519-B140-F675D1123A86}"/>
+    <hyperlink ref="C91" r:id="rId3" xr:uid="{3824DA84-47CF-4D31-AA0E-04A22DAD8BCE}"/>
+    <hyperlink ref="C93" r:id="rId4" xr:uid="{66F746C5-1015-44FE-BFBA-28D184B276B8}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{4A4AA6B2-6479-419C-A043-9A61CB3C148B}"/>
     <hyperlink ref="C2" r:id="rId6" display="https://mlbookcamp.com/article/crisp-dm" xr:uid="{366E00BF-8318-47E5-8DD6-FE47524E075A}"/>
-    <hyperlink ref="C117" r:id="rId7" xr:uid="{50359122-829B-4B46-A956-184AC67969EC}"/>
-    <hyperlink ref="C102" r:id="rId8" xr:uid="{E5974F08-1C76-43F2-8662-9BFAD160AD79}"/>
+    <hyperlink ref="C120" r:id="rId7" xr:uid="{50359122-829B-4B46-A956-184AC67969EC}"/>
+    <hyperlink ref="C105" r:id="rId8" xr:uid="{E5974F08-1C76-43F2-8662-9BFAD160AD79}"/>
     <hyperlink ref="C31" r:id="rId9" xr:uid="{F7D9DEE8-C3EF-40AC-B83C-C3F5C55EF822}"/>
-    <hyperlink ref="C93" r:id="rId10" xr:uid="{18BEAC28-0E2B-42CA-BDB0-170742EE9127}"/>
-    <hyperlink ref="C84" r:id="rId11" xr:uid="{91679E8C-53A8-4FFC-9692-717359315E93}"/>
+    <hyperlink ref="C96" r:id="rId10" xr:uid="{18BEAC28-0E2B-42CA-BDB0-170742EE9127}"/>
+    <hyperlink ref="C87" r:id="rId11" xr:uid="{91679E8C-53A8-4FFC-9692-717359315E93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -24558,30 +25171,30 @@
   <sheetData>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.35">
       <c r="B2" s="36" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -24613,159 +25226,159 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B2" t="s">
         <v>751</v>
-      </c>
-      <c r="B2" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1088</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1149</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="27" spans="2:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="29" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.3">
@@ -24782,23 +25395,23 @@
         <v>54</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="330" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="204.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -24806,61 +25419,61 @@
         <v>41</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="93" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="321" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="222" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="3" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -24868,37 +25481,37 @@
         <v>38</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="8"/>
       <c r="B46" s="3" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="B48" s="31" t="s">
         <v>519</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -24906,7 +25519,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -24914,7 +25527,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -24922,21 +25535,21 @@
         <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
@@ -24944,25 +25557,25 @@
         <v>57</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A57" s="14" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -24975,20 +25588,20 @@
     </row>
     <row r="59" spans="1:4" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -24996,135 +25609,135 @@
     <row r="61" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="5"/>
       <c r="B61" s="3" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
-        <v>1185</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1089</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1187</v>
+        <v>1170</v>
       </c>
       <c r="C67" t="s">
-        <v>1186</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="B72" s="1" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="374.4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1183</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1184</v>
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -25137,8 +25750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4319920B-AB1B-440B-8B17-63E964E70FBF}">
   <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25152,258 +25765,258 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>915</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
-        <v>1109</v>
+        <v>1092</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>1110</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1107</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
-        <v>894</v>
+      <c r="A6" s="69" t="s">
+        <v>887</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="1" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="1" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="1" t="s">
-        <v>1115</v>
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="66" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="64"/>
+      <c r="B9" s="65" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="1" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="1" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="4" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>1112</v>
+        <v>1095</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1113</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>1193</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="4" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="4" customFormat="1" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>889</v>
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="66" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B19" s="65" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="66" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="65" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="66" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="B21" s="65" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B22" s="67" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="65" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1189</v>
-      </c>
-      <c r="B27" s="70" t="s">
-        <v>1188</v>
+        <v>1172</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="70" t="s">
-        <v>1190</v>
+      <c r="B28" s="1" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="4" customFormat="1" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="4" customFormat="1" ht="317.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>899</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="4" customFormat="1" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="47" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="4" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="48" t="s">
-        <v>1191</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="4" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="49" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="68" t="s">
-        <v>903</v>
+      <c r="A36" s="72" t="s">
+        <v>895</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="4" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="69"/>
+      <c r="A37" s="73"/>
       <c r="B37" s="45" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="4" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="4" customFormat="1" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="47" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="4" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="4" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="4" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="47" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="4" customFormat="1" ht="159" thickBot="1" x14ac:dyDescent="0.35">
@@ -25411,206 +26024,206 @@
         <v>4</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="4" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="B46" s="51" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>1195</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>976</v>
+        <v>964</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="B50" s="1"/>
     </row>
     <row r="51" spans="1:2" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B51" s="36" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B52" s="36" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B63" s="1" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B64" s="1" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B65" s="1" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B66" s="1" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="60" x14ac:dyDescent="0.35">
       <c r="B67" s="36" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="60" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B71" s="36" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.35">
       <c r="B72" s="36" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B73" s="1" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.35">
       <c r="B74" s="36" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="B75" s="41" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="75" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>
@@ -25619,6 +26232,7 @@
     <mergeCell ref="A36:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -25638,225 +26252,225 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1091</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1090</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1092</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1093</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1095</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1094</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>1096</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1097</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>1098</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1099</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>1101</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>1102</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1103</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>1105</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>1104</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>1106</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>

--- a/Tracker.xlsx
+++ b/Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shesh\Desktop\sheshank_doc\ML\notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198DB350-EC84-4E41-873A-F2694AD914EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B72ECF84-1E2D-43A3-B593-41697C01BC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="3" activeTab="11" xr2:uid="{D7F2B556-C617-4DDF-8866-32B87C862FE3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="645" firstSheet="4" activeTab="4" xr2:uid="{D7F2B556-C617-4DDF-8866-32B87C862FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="ADA BOOST" sheetId="15" r:id="rId21"/>
     <sheet name="CAT BOOST" sheetId="16" r:id="rId22"/>
     <sheet name="LGB" sheetId="17" r:id="rId23"/>
+    <sheet name="kmeans" sheetId="26" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="1208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="1211">
   <si>
     <t>Topic</t>
   </si>
@@ -9594,117 +9595,6 @@
 which was provided by the training data and when new data is given as input to the model if same kind of feature values arise the outcome will be same</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Linearity:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The relationship between the independent variables and the dependent variable should be linear. This means that a change in the independent variable(s) should result in a proportional change in the dependent variable. You can check this assumption by examining scatterplots and residual plots.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Normality of Errors:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The errors should be normally distributed. This assumption is not about the normality of the independent variables but the normality of the residuals. Normality ensures that the parameter estimates are efficient and unbiased. You can check this assumption using techniques like a normal probability plot or a histogram of residuals.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>No or Little Multicollinearity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: If you have multiple independent variables in your model, they should not be highly correlated with each other. High multicollinearity can make it difficult to determine the individual effect of each predictor on the dependent variable.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Homoscedasticity (Constant Variance of Errors):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The variance of the errors should be constant across all levels of the independent variables. In simpler terms, the spread of residuals should be roughly consistent throughout the range of the predictor variables. Heteroscedasticity, where the variance changes systematically, can be a violation of this assumption.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Independence of Errors:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The errors (residuals) should be independent of each other. In other words, the error for one observation should not be correlated with the errors for other observations. Autocorrelation or serial correlation can violate this assumption.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">What are the various metrcs to consider in order to assess the performance of the linear regression model? </t>
   </si>
   <si>
@@ -18797,6 +18687,176 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>methods to check normality assumption?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Shapiro-Wilk Test:
+Method: Perform the Shapiro-Wilk test, a statistical test for normality. The null hypothesis is that the data is normally distributed.
+Interpretation: If the p-value is greater than the chosen significance level (e.g., 0.05), you fail to reject the null hypothesis, suggesting normality.
+4. Kolmogorov-Smirnov Test:
+Method: Similar to the Shapiro-Wilk test, the Kolmogorov-Smirnov test assesses whether the sample distribution is significantly different from a normal distribution.
+Interpretation: A higher p-value indicates that the data is consistent with normality.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Durbin-Watson Test:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Method: A statistical test that assesses autocorrelation by examining the correlation between consecutive residuals.
+Interpretation: The test statistic ranges from 0 to 4, with values close to 2 indicating no autocorrelation. Values significantly below 2 (less than 1.5) suggest positive autocorrelation, while values significantly above 2 (greater than 2.5) suggest negative autocorrelation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Linearity:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The relationship between the independent variables and the dependent variable should be linear. This means that a change in the independent variable(s) should result in a proportional change in the dependent variable. You can check this assumption by examining scatterplots and residual plots. If this assumption is violated, the model may fail to accurately capture the underlying pattern in the data.
+If the linearity assumption is violated, one might consider using polynomial regression or transforming the variables to better capture the non-linear relationship.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Normality of Errors:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The errors should be normally distributed. This assumption is not about the normality of the independent variables but the normality of the residuals. You can check this assumption using techniques like a normal probability plot or a histogram of residuals.
+The assumption of normality of residuals in linear regression is not critical for large sample sizes, thanks to the Central Limit Theorem. However, for smaller sample sizes, departures from normality can impact the reliability of statistical tests associated with the regression coefficients and can affect the accuracy of confidence intervals.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No or Little Multicollinearity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: If you have multiple independent variables in your model, they should not be highly correlated with each other. High multicollinearity can make it difficult to determine the individual effect of each predictor on the dependent variable.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Homoscedasticity (Constant Variance of Errors):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The variance of the errors should be constant across all levels of the independent variables. In simpler terms, the spread of residuals should be roughly consistent throughout the range of the predictor variables. Heteroscedasticity, where the variance changes systematically, can be a violation of this assumption.
+This means that the estimates may have larger standard errors, reducing the precision of the estimates. As a result, confidence intervals for the coefficients may be wider.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Independence of Errors:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The errors (residuals) should be independent of each other. In other words, the error for one observation should not be correlated with the errors for other observations. Autocorrelation or serial correlation can violate this assumption.
+Autocorrelation often indicates the presence of a systematic pattern or structure in the residuals over time. This suggests that the model is not adequately capturing the temporal dynamics of the data, and predictions may be influenced by past errors.
+Standard hypothesis tests, such as t-tests and F-tests, rely on the assumption of independent and identically distributed residuals. If this assumption is violated, the p-values associated with these tests may be unreliable, leading to incorrect conclusions about the significance of the regression coefficients or the overall model.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Linearity:
 </t>
     </r>
@@ -18839,6 +18899,7 @@
 A random scatter of residuals around the horizontal axis suggests constant variance. If the spread of residuals is relatively consistent as the predicted values increase, homoscedasticity is likely satisfied. Ensure a consistent spread of points; avoid patterns like a funnel shape.
 Homoscedasticity is violated if the spread does not remain consistent across the range of fitted values.
 If the spread of residuals systematically changes with different levels of predictors, homoscedasticity is not met.
+A funnel-like shape in a residual plot typically indicates the presence of heteroscedasticity, which means that the variance of the residuals is not constant across all levels of the independent variable(s).
 what happens if the model doesn't follow homoscedasticity?
 When a linear regression model violates the assumption of homoscedasticity (constant variance of residuals), it can lead to inefficient parameter estimates and biased standard errors.
 Apply a transformation to the dependent variable, such as taking the logarithm.
@@ -18867,7 +18928,7 @@
       <t xml:space="preserve">
 Plot the residuals against the fitted (predicted) values.
 Look for a random scatter of points with no discernible pattern. If there is a pattern, it may suggest a violation of independence.
-Include lagged values of the residuals as additional predictors in the model if the model suffers with autocorrelation. Assign weights to observations based on the degree of autocorrelation.
+Include lagged values of the residuals as additional predictors in the model if the model suffers with autocorrelation. Assign weights to observations based on the degree of autocorrelation.  If autocorrelation is present, you might observe a pattern where residuals are not randomly scattered but show some form of structure.
 If there is Auto correlation within the data and the dataset belong to time series then make use of time series models like ARIMA.
  </t>
     </r>
@@ -18882,48 +18943,340 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>methods to check normality assumption?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Shapiro-Wilk Test:
-Method: Perform the Shapiro-Wilk test, a statistical test for normality. The null hypothesis is that the data is normally distributed.
-Interpretation: If the p-value is greater than the chosen significance level (e.g., 0.05), you fail to reject the null hypothesis, suggesting normality.
-4. Kolmogorov-Smirnov Test:
-Method: Similar to the Shapiro-Wilk test, the Kolmogorov-Smirnov test assesses whether the sample distribution is significantly different from a normal distribution.
-Interpretation: A higher p-value indicates that the data is consistent with normality.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Durbin-Watson Test:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Method: A statistical test that assesses autocorrelation by examining the correlation between consecutive residuals.
-Interpretation: The test statistic ranges from 0 to 4, with values close to 2 indicating no autocorrelation. Values significantly below 2 (less than 1.5) suggest positive autocorrelation, while values significantly above 2 (greater than 2.5) suggest negative autocorrelation.</t>
+      <t>Data Cleaning:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Remove or handle missing values in the dataset.
+Check for outliers and decide whether to remove or transform them based on the nature of your data.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature Scaling:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Normalize or standardize the features to ensure that all variables contribute equally to the distance computations. Common scaling methods include Min-Max scaling or Z-score normalization.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Handling Categorical Variables:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">If your dataset contains categorical variables, convert them into a numerical format. This may involve one-hot encoding, label encoding, or other techniques depending on the nature of the categorical variables.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feature Selection:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Assess whether all features are relevant for clustering. Remove irrelevant or redundant features to simplify the model and potentially improve the clustering results.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Remove Duplicates:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Check for and remove any duplicate rows in the dataset.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Handling High-Dimensional Data:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If the dataset has a high number of dimensions (features), consider dimensionality reduction techniques such as Principal Component Analysis (PCA) to reduce the number of features while preserving the most important information.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Understanding Domain Knowledge:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Gain insights into the domain of your data to inform decisions about the number of clusters (K) and the interpretability of the results. Understanding the nature of the data can help in choosing an appropriate distance metric and initializations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Choosing the Right Distance Metric:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Depending on the nature of your data, choose an appropriate distance metric (e.g., Euclidean distance, Manhattan distance, cosine similarity) that aligns with the characteristics of your features.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Determining the Number of Clusters (K):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Decide on the appropriate number of clusters for your specific problem. You can use techniques such as the elbow method, silhouette analysis, or domain knowledge to help determine the optimal number of clusters.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Initial Centroid Placement:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Consider using smart initialization techniques, such as K-means++, to improve the convergence speed and the quality of the final clusters.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How to decide when to use which technique to detect outliers?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Z-Score Method:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> It assumes that the data follows a normal distribution.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IQR (Interquartile Range) Method:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  It is robust to outliers and works well for skewed distributions. Use this method when your data is skewed or not normally distributed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">DBSCAN: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Use this method when your data has clusters or density variations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Isolation Forest:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  It is effective for high-dimensional data and can handle mixed data types. Use this method for datasets with mixed data types or high dimensionality.
+</t>
     </r>
   </si>
 </sst>
@@ -19364,7 +19717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -19530,12 +19883,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20237,37 +20584,37 @@
   <sheetData>
     <row r="1" spans="2:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="2" spans="2:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="4" spans="2:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="5" spans="2:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
@@ -20291,98 +20638,98 @@
   <sheetData>
     <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="163.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>1116</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1117</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="319.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
@@ -20394,8 +20741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B5D22B-731D-4B12-B5EB-ED12599E6F65}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20428,38 +20775,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="403.2" x14ac:dyDescent="0.3">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -20486,13 +20833,13 @@
     </row>
     <row r="12" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>798</v>
       </c>
@@ -20587,7 +20934,7 @@
         <v>140</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>141</v>
@@ -20598,7 +20945,7 @@
         <v>810</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C28" s="11"/>
     </row>
@@ -20607,7 +20954,7 @@
         <v>142</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="271.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -20655,7 +21002,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>137</v>
       </c>
@@ -20691,7 +21038,7 @@
         <v>143</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
@@ -20713,7 +21060,7 @@
         <v>144</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
@@ -20777,15 +21124,15 @@
         <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1014</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
@@ -20793,7 +21140,7 @@
         <v>151</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -20801,7 +21148,7 @@
         <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -20814,17 +21161,17 @@
     </row>
     <row r="7" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -20941,18 +21288,18 @@
     </row>
     <row r="3" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
@@ -21094,7 +21441,7 @@
         <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -21140,7 +21487,7 @@
         <v>201</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -21174,7 +21521,7 @@
         <v>208</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
   </sheetData>
@@ -21332,7 +21679,7 @@
         <v>238</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -21368,7 +21715,7 @@
         <v>240</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -21408,10 +21755,10 @@
     </row>
     <row r="14" spans="1:3" ht="267" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1147</v>
       </c>
       <c r="C14" s="11"/>
     </row>
@@ -21420,7 +21767,7 @@
         <v>241</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -21430,10 +21777,10 @@
     </row>
     <row r="17" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -21554,12 +21901,12 @@
         <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -21567,7 +21914,7 @@
         <v>244</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -21583,7 +21930,7 @@
         <v>287</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
@@ -21596,10 +21943,10 @@
     </row>
     <row r="8" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="345" x14ac:dyDescent="0.35">
@@ -21607,7 +21954,7 @@
         <v>817</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
@@ -21620,78 +21967,78 @@
     </row>
     <row r="11" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="216" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -21705,7 +22052,7 @@
     <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="144" x14ac:dyDescent="0.3">
@@ -21772,20 +22119,20 @@
         <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -21801,32 +22148,32 @@
         <v>320</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -21849,22 +22196,22 @@
     </row>
     <row r="15" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="144" x14ac:dyDescent="0.3">
@@ -21907,96 +22254,96 @@
     </row>
     <row r="2" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="B15" s="52" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
   </sheetData>
@@ -22040,7 +22387,7 @@
     </row>
     <row r="3" spans="1:3" ht="186" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C3" s="11"/>
     </row>
@@ -22058,15 +22405,15 @@
         <v>320</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
@@ -22076,12 +22423,12 @@
     </row>
     <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.3">
@@ -22110,7 +22457,7 @@
     </row>
     <row r="13" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -22237,7 +22584,7 @@
         <v>401</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -22272,20 +22619,20 @@
         <v>337</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="292.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="72" x14ac:dyDescent="0.3">
@@ -22298,18 +22645,18 @@
     </row>
     <row r="15" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1161</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1162</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -22347,17 +22694,17 @@
     </row>
     <row r="21" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
   </sheetData>
@@ -22396,12 +22743,12 @@
         <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -22422,7 +22769,7 @@
     </row>
     <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
@@ -22443,17 +22790,17 @@
     </row>
     <row r="9" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -22513,12 +22860,40 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5242491-7AEE-4FAF-BB3C-97EDEE98475C}">
+  <dimension ref="B1:B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="101.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DFB714-F672-402F-8602-5E61FD901C54}">
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22546,13 +22921,13 @@
     <row r="3" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -22572,7 +22947,7 @@
         <v>269</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="360" x14ac:dyDescent="0.3">
@@ -22580,7 +22955,7 @@
         <v>270</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
@@ -22588,7 +22963,7 @@
         <v>272</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
@@ -22596,7 +22971,7 @@
         <v>562</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
@@ -22604,19 +22979,19 @@
         <v>563</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -22662,12 +23037,12 @@
         <v>573</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="159" thickBot="1" x14ac:dyDescent="0.35">
@@ -22675,7 +23050,7 @@
         <v>564</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
@@ -22683,15 +23058,15 @@
         <v>574</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>1133</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1134</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="354.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -22699,15 +23074,15 @@
         <v>575</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -22738,10 +23113,10 @@
     </row>
     <row r="30" spans="1:2" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="72" x14ac:dyDescent="0.3">
@@ -22749,7 +23124,7 @@
         <v>580</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -22757,23 +23132,23 @@
         <v>261</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>941</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>970</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.35">
@@ -22781,7 +23156,7 @@
         <v>581</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -22797,7 +23172,7 @@
         <v>584</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -22836,7 +23211,7 @@
         <v>592</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.35">
@@ -22847,12 +23222,12 @@
         <v>596</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="135" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" ht="121.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>597</v>
       </c>
       <c r="B45" s="36" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="90" x14ac:dyDescent="0.35">
@@ -22873,10 +23248,10 @@
     </row>
     <row r="48" spans="1:2" ht="405" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="B48" s="36" t="s">
         <v>946</v>
-      </c>
-      <c r="B48" s="36" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -22884,7 +23259,7 @@
         <v>594</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -22892,7 +23267,7 @@
         <v>595</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
@@ -22908,7 +23283,7 @@
     </row>
     <row r="53" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -22916,7 +23291,7 @@
         <v>602</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
@@ -22926,7 +23301,7 @@
     </row>
     <row r="56" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -22977,7 +23352,7 @@
         <v>604</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
@@ -22990,10 +23365,10 @@
     </row>
     <row r="67" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -23006,12 +23381,12 @@
     </row>
     <row r="69" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="B69" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
       <c r="B70" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -23024,10 +23399,10 @@
     </row>
     <row r="72" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>975</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.35">
@@ -23035,7 +23410,7 @@
         <v>690</v>
       </c>
       <c r="B73" s="36" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.3">
@@ -23050,10 +23425,10 @@
     </row>
     <row r="76" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
@@ -23063,7 +23438,7 @@
     </row>
     <row r="78" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B78" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
@@ -23102,12 +23477,12 @@
     </row>
     <row r="4" spans="1:4" ht="345.6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
@@ -23115,7 +23490,7 @@
         <v>520</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="216" x14ac:dyDescent="0.3">
@@ -23183,7 +23558,7 @@
     <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
@@ -23229,7 +23604,7 @@
         <v>557</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="141" customHeight="1" x14ac:dyDescent="0.3">
@@ -23253,7 +23628,7 @@
         <v>631</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="295.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -23266,19 +23641,19 @@
     </row>
     <row r="26" spans="1:4" ht="274.8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="210" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
@@ -23292,15 +23667,15 @@
     <row r="30" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A31" s="32" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="200.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -23308,7 +23683,7 @@
         <v>607</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -23326,10 +23701,10 @@
     </row>
     <row r="35" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="300" x14ac:dyDescent="0.35">
@@ -23337,7 +23712,7 @@
         <v>491</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -23355,7 +23730,7 @@
         <v>615</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
@@ -23384,7 +23759,7 @@
         <v>617</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
@@ -23392,7 +23767,7 @@
         <v>618</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="144" x14ac:dyDescent="0.3">
@@ -23432,7 +23807,7 @@
         <v>13</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
@@ -23456,7 +23831,7 @@
         <v>16</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
@@ -23469,10 +23844,10 @@
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="124.2" x14ac:dyDescent="0.3">
@@ -23480,7 +23855,7 @@
         <v>624</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
@@ -23496,21 +23871,21 @@
         <v>261</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>1043</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="360" x14ac:dyDescent="0.3">
@@ -23518,7 +23893,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -23617,7 +23992,7 @@
         <v>72</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -23627,7 +24002,7 @@
         <v>75</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -23657,17 +24032,17 @@
         <v>80</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="75" t="s">
-        <v>1202</v>
+      <c r="A73" s="14" t="s">
+        <v>1201</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -23691,13 +24066,13 @@
         <v>215</v>
       </c>
       <c r="B76" s="36" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="60" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="B77" s="36" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -23748,7 +24123,7 @@
         <v>210</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
@@ -23800,15 +24175,15 @@
         <v>643</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A90" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -24073,10 +24448,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F9766C-5467-4C6A-856C-E91C39450D47}">
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24115,7 +24490,7 @@
     <row r="4" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
       <c r="B4" s="21" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
@@ -24182,7 +24557,7 @@
         <v>166</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -24193,22 +24568,22 @@
     </row>
     <row r="14" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="B14" s="74" t="s">
-        <v>1195</v>
+      <c r="B14" s="1" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="29"/>
       <c r="B15" s="1" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="29" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
@@ -24252,7 +24627,7 @@
     <row r="21" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -24270,7 +24645,7 @@
     <row r="23" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -24308,7 +24683,7 @@
     <row r="27" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -24318,17 +24693,17 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -24415,20 +24790,20 @@
     </row>
     <row r="38" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>1142</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>1143</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>1144</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>1145</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -24438,7 +24813,7 @@
         <v>55</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -24479,10 +24854,10 @@
     </row>
     <row r="45" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1185</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1186</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -24490,7 +24865,7 @@
         <v>56</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>58</v>
@@ -24500,7 +24875,7 @@
     <row r="47" spans="1:4" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -24523,43 +24898,43 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="3" t="s">
-        <v>1188</v>
+        <v>1210</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5"/>
+      <c r="B51" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B52" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="3" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:4" ht="282.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A53" s="5"/>
       <c r="B53" s="3" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:4" ht="189" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="282.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="5"/>
       <c r="B54" s="3" t="s">
         <v>1191</v>
@@ -24567,588 +24942,596 @@
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="189" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5"/>
       <c r="B55" s="3" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="3" t="s">
-        <v>69</v>
+        <v>1192</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
-        <v>487</v>
-      </c>
+    <row r="57" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
       <c r="B57" s="3" t="s">
-        <v>489</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>61</v>
+        <v>487</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="71" t="s">
+    <row r="59" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="10">
+      <c r="C60" s="2"/>
+      <c r="D60" s="10">
         <v>44935</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A60" s="71"/>
-      <c r="B60" s="3" t="s">
-        <v>833</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A61" s="71"/>
       <c r="B61" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="71"/>
+      <c r="B62" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
-      <c r="A62" s="42" t="s">
-        <v>834</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>835</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
+    <row r="63" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A63" s="42" t="s">
+        <v>833</v>
+      </c>
       <c r="B63" s="3" t="s">
-        <v>86</v>
+        <v>834</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="5"/>
       <c r="B64" s="3" t="s">
-        <v>484</v>
+        <v>86</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
-        <v>91</v>
-      </c>
+    <row r="65" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
       <c r="B65" s="3" t="s">
-        <v>92</v>
+        <v>484</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
-        <v>88</v>
+    <row r="66" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>90</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="71" t="s">
-        <v>117</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>118</v>
-      </c>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="71"/>
+    <row r="70" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="71" t="s">
+        <v>117</v>
+      </c>
       <c r="B70" s="3" t="s">
-        <v>1135</v>
+        <v>118</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A71" s="71"/>
       <c r="B71" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="71"/>
+      <c r="B72" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D71" s="2"/>
-    </row>
-    <row r="72" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
-      <c r="B72" s="3" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C72" s="12"/>
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A73" s="42"/>
       <c r="B73" s="3" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:4" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="42"/>
+      <c r="B74" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="1:4" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-    </row>
-    <row r="75" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="1:4" ht="201" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="273.60000000000002" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" ht="201" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C78" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D77" s="2"/>
-    </row>
-    <row r="78" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="1" t="s">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+    <row r="80" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="302.39999999999998" x14ac:dyDescent="0.3">
-      <c r="A80" s="6"/>
-      <c r="B80" s="1" t="s">
+    <row r="81" spans="1:3" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="71" t="s">
+    <row r="82" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="71"/>
-      <c r="B82" s="3" t="s">
+    <row r="83" spans="1:3" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="71"/>
+      <c r="B83" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+    <row r="84" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="1" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
+    <row r="87" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A87" s="15" t="s">
+    <row r="88" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+    <row r="89" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+    <row r="90" spans="1:3" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C90" s="11" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="288" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+    <row r="93" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+    <row r="94" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C94" s="11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A94" s="16" t="s">
+    <row r="95" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A95" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C94" s="11"/>
-    </row>
-    <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="C95" s="11"/>
+    </row>
+    <row r="97" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C97" s="11" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+    <row r="98" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+    <row r="99" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+    <row r="100" spans="1:3" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+    <row r="101" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+    <row r="102" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B102" s="1"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="1"/>
+    </row>
+    <row r="105" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+    <row r="106" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C106" s="11" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+    <row r="107" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="B107" s="1" t="s">
+    <row r="108" spans="1:3" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="B108" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
+    <row r="109" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+    <row r="110" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
+    <row r="114" spans="1:3" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="B113" s="28" t="s">
+      <c r="B114" s="28" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
+    <row r="115" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="69" t="s">
+    <row r="116" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="69" t="s">
         <v>378</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="288" x14ac:dyDescent="0.3">
-      <c r="A116" s="69"/>
-      <c r="B116" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C116" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" ht="288" x14ac:dyDescent="0.3">
       <c r="A117" s="69"/>
       <c r="B117" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="C117" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A118" s="69"/>
       <c r="B118" s="1" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="345.6" x14ac:dyDescent="0.3">
       <c r="A119" s="69"/>
       <c r="B119" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="69"/>
+      <c r="B120" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="336" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
+    <row r="121" spans="1:3" ht="336" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C121" s="11" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="4" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A122" s="4" t="s">
+    <row r="123" spans="1:3" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
         <v>693</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="A116:A120"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A41:A44"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A82:A83"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C71" r:id="rId1" display="https://www.youtube.com/watch?v=gzrQvzYEvYc&amp;t=249s" xr:uid="{037A6B83-99E9-4A12-AA81-809B626C745F}"/>
-    <hyperlink ref="C90" r:id="rId2" xr:uid="{3D33C826-7135-4519-B140-F675D1123A86}"/>
-    <hyperlink ref="C91" r:id="rId3" xr:uid="{3824DA84-47CF-4D31-AA0E-04A22DAD8BCE}"/>
-    <hyperlink ref="C93" r:id="rId4" xr:uid="{66F746C5-1015-44FE-BFBA-28D184B276B8}"/>
+    <hyperlink ref="C72" r:id="rId1" display="https://www.youtube.com/watch?v=gzrQvzYEvYc&amp;t=249s" xr:uid="{037A6B83-99E9-4A12-AA81-809B626C745F}"/>
+    <hyperlink ref="C91" r:id="rId2" xr:uid="{3D33C826-7135-4519-B140-F675D1123A86}"/>
+    <hyperlink ref="C92" r:id="rId3" xr:uid="{3824DA84-47CF-4D31-AA0E-04A22DAD8BCE}"/>
+    <hyperlink ref="C94" r:id="rId4" xr:uid="{66F746C5-1015-44FE-BFBA-28D184B276B8}"/>
     <hyperlink ref="C9" r:id="rId5" xr:uid="{4A4AA6B2-6479-419C-A043-9A61CB3C148B}"/>
     <hyperlink ref="C2" r:id="rId6" display="https://mlbookcamp.com/article/crisp-dm" xr:uid="{366E00BF-8318-47E5-8DD6-FE47524E075A}"/>
-    <hyperlink ref="C120" r:id="rId7" xr:uid="{50359122-829B-4B46-A956-184AC67969EC}"/>
-    <hyperlink ref="C105" r:id="rId8" xr:uid="{E5974F08-1C76-43F2-8662-9BFAD160AD79}"/>
+    <hyperlink ref="C121" r:id="rId7" xr:uid="{50359122-829B-4B46-A956-184AC67969EC}"/>
+    <hyperlink ref="C106" r:id="rId8" xr:uid="{E5974F08-1C76-43F2-8662-9BFAD160AD79}"/>
     <hyperlink ref="C31" r:id="rId9" xr:uid="{F7D9DEE8-C3EF-40AC-B83C-C3F5C55EF822}"/>
-    <hyperlink ref="C96" r:id="rId10" xr:uid="{18BEAC28-0E2B-42CA-BDB0-170742EE9127}"/>
-    <hyperlink ref="C87" r:id="rId11" xr:uid="{91679E8C-53A8-4FFC-9692-717359315E93}"/>
+    <hyperlink ref="C97" r:id="rId10" xr:uid="{18BEAC28-0E2B-42CA-BDB0-170742EE9127}"/>
+    <hyperlink ref="C88" r:id="rId11" xr:uid="{91679E8C-53A8-4FFC-9692-717359315E93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
@@ -25206,8 +25589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112F4E25-B6EF-4FC2-AAC0-B362CEC80063}">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25250,7 +25633,7 @@
     </row>
     <row r="5" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
@@ -25260,7 +25643,7 @@
     </row>
     <row r="7" spans="1:2" ht="144" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -25288,7 +25671,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="288" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>758</v>
       </c>
@@ -25557,7 +25940,7 @@
         <v>57</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -25625,7 +26008,7 @@
     <row r="63" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="1" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
@@ -25649,7 +26032,7 @@
         <v>543</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -25657,10 +26040,10 @@
         <v>544</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C67" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
@@ -25713,7 +26096,7 @@
         <v>201</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
@@ -25737,7 +26120,7 @@
         <v>208</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
   </sheetData>
@@ -25770,245 +26153,245 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B2" s="14" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A3" s="56" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="60" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B4" s="61" t="s">
         <v>1092</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1" ht="273.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="58" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="4" customFormat="1" ht="216" x14ac:dyDescent="0.3">
       <c r="A6" s="69" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A7" s="69"/>
       <c r="B7" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="66" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="64"/>
       <c r="B9" s="65" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="4" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="4" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="4" customFormat="1" ht="259.2" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="66" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B19" s="65" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="66" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B20" s="65" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="66" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B21" s="65" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B22" s="67" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="66" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="65" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="4" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="4" customFormat="1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="4" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="4" customFormat="1" ht="317.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="4" customFormat="1" ht="187.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="47" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B33" s="46" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="4" customFormat="1" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="47"/>
       <c r="B34" s="48" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="4" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="49" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="4" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A36" s="72" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="4" customFormat="1" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="73"/>
       <c r="B37" s="45" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="4" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
+        <v>898</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>900</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="4" customFormat="1" ht="216.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="47" t="s">
+        <v>900</v>
+      </c>
+      <c r="B39" s="50" t="s">
         <v>901</v>
-      </c>
-      <c r="B39" s="50" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="4" customFormat="1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="4" customFormat="1" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="4" customFormat="1" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -26016,7 +26399,7 @@
         <v>731</v>
       </c>
       <c r="B42" s="48" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="4" customFormat="1" ht="159" thickBot="1" x14ac:dyDescent="0.35">
@@ -26024,54 +26407,54 @@
         <v>4</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="4" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="4" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="B46" s="51" t="s">
         <v>913</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>914</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="4" customFormat="1" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B50" s="1"/>
     </row>
@@ -26260,12 +26643,12 @@
     </row>
     <row r="2" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
@@ -26281,196 +26664,196 @@
         <v>701</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="288" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
